--- a/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.28002112152449</v>
+        <v>25.28002112152454</v>
       </c>
       <c r="C2">
-        <v>20.81560613587854</v>
+        <v>20.81560613587859</v>
       </c>
       <c r="D2">
-        <v>2.931005001207163</v>
+        <v>2.931005001207038</v>
       </c>
       <c r="F2">
-        <v>24.00215650533528</v>
+        <v>24.00215650533519</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12.82380974321944</v>
+        <v>12.82380974321931</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,22 +438,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.54017583022844</v>
+        <v>23.54017583022852</v>
       </c>
       <c r="C3">
-        <v>19.36000911781066</v>
+        <v>19.36000911781049</v>
       </c>
       <c r="D3">
-        <v>3.02991087888795</v>
+        <v>3.029910878887947</v>
       </c>
       <c r="F3">
-        <v>22.89400583896485</v>
+        <v>22.89400583896478</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12.91168273636222</v>
+        <v>12.91168273636208</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -464,22 +464,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.41419061874442</v>
+        <v>22.41419061874443</v>
       </c>
       <c r="C4">
-        <v>18.4200314419099</v>
+        <v>18.42003144190979</v>
       </c>
       <c r="D4">
-        <v>3.092622817454175</v>
+        <v>3.092622817454183</v>
       </c>
       <c r="F4">
-        <v>22.24201226553429</v>
+        <v>22.24201226553416</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13.00327241867152</v>
+        <v>13.00327241867144</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -490,22 +490,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.94064531625727</v>
+        <v>21.94064531625722</v>
       </c>
       <c r="C5">
-        <v>18.02517480613493</v>
+        <v>18.02517480613507</v>
       </c>
       <c r="D5">
-        <v>3.118655920004651</v>
+        <v>3.11865592000464</v>
       </c>
       <c r="F5">
-        <v>21.98365258870137</v>
+        <v>21.98365258870149</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.04921953631897</v>
+        <v>13.04921953631915</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -519,19 +519,19 @@
         <v>21.86112061504957</v>
       </c>
       <c r="C6">
-        <v>17.95889088251358</v>
+        <v>17.95889088251353</v>
       </c>
       <c r="D6">
-        <v>3.123007047914383</v>
+        <v>3.123007047914395</v>
       </c>
       <c r="F6">
-        <v>21.94120064132639</v>
+        <v>21.94120064132637</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13.05734588094951</v>
+        <v>13.05734588094941</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -542,22 +542,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.40786396620382</v>
+        <v>22.40786396620386</v>
       </c>
       <c r="C7">
-        <v>18.41475431027266</v>
+        <v>18.41475431027269</v>
       </c>
       <c r="D7">
-        <v>3.092971998572603</v>
+        <v>3.092971998572665</v>
       </c>
       <c r="F7">
-        <v>22.23849799227105</v>
+        <v>22.23849799227093</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13.00385824982471</v>
+        <v>13.0038582498246</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -568,22 +568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.69198592791891</v>
+        <v>24.69198592791876</v>
       </c>
       <c r="C8">
-        <v>20.32319908851433</v>
+        <v>20.32319908851415</v>
       </c>
       <c r="D8">
-        <v>2.964680906141252</v>
+        <v>2.964680906141707</v>
       </c>
       <c r="F8">
-        <v>23.61427639864449</v>
+        <v>23.61427639864453</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12.8457841430195</v>
+        <v>12.84578414301972</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -594,22 +594,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.72220053798965</v>
+        <v>28.72220053798947</v>
       </c>
       <c r="C9">
-        <v>23.70768735646835</v>
+        <v>23.70768735646826</v>
       </c>
       <c r="D9">
-        <v>2.730285227512855</v>
+        <v>2.730285227513041</v>
       </c>
       <c r="F9">
-        <v>26.5309270803109</v>
+        <v>26.53092708031097</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.872767556124</v>
+        <v>12.87276755612424</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -620,22 +620,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.42313124307509</v>
+        <v>31.42313124307513</v>
       </c>
       <c r="C10">
-        <v>25.98961414874564</v>
+        <v>25.98961414874568</v>
       </c>
       <c r="D10">
-        <v>2.571609490804888</v>
+        <v>2.571609490804889</v>
       </c>
       <c r="F10">
-        <v>28.8769380599225</v>
+        <v>28.87693805992249</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13.14984536390944</v>
+        <v>13.14984536390943</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -646,22 +646,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.59875557522189</v>
+        <v>32.59875557522175</v>
       </c>
       <c r="C11">
-        <v>26.98668160767845</v>
+        <v>26.9866816076783</v>
       </c>
       <c r="D11">
-        <v>2.503464777547702</v>
+        <v>2.503464777547747</v>
       </c>
       <c r="F11">
-        <v>30.09738682635453</v>
+        <v>30.09738682635449</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13.34221775084959</v>
+        <v>13.34221775084972</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -672,22 +672,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.03662012417688</v>
+        <v>33.0366201241768</v>
       </c>
       <c r="C12">
         <v>27.35867035304557</v>
       </c>
       <c r="D12">
-        <v>2.478375953677513</v>
+        <v>2.478375953677567</v>
       </c>
       <c r="F12">
-        <v>30.56073557975805</v>
+        <v>30.56073557975793</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13.4253869907761</v>
+        <v>13.42538699077616</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -698,22 +698,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.94263837390032</v>
+        <v>32.94263837390033</v>
       </c>
       <c r="C13">
-        <v>27.27879860878922</v>
+        <v>27.27879860878934</v>
       </c>
       <c r="D13">
-        <v>2.48374480852437</v>
+        <v>2.483744808524355</v>
       </c>
       <c r="F13">
-        <v>30.46088599345297</v>
+        <v>30.46088599345301</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13.40700416285485</v>
+        <v>13.40700416285486</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.63492374290829</v>
+        <v>32.63492374290835</v>
       </c>
       <c r="C14">
         <v>27.01739521264575</v>
       </c>
       <c r="D14">
-        <v>2.501385423285359</v>
+        <v>2.501385423285409</v>
       </c>
       <c r="F14">
-        <v>30.13548075821907</v>
+        <v>30.13548075821925</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13.34884901347575</v>
+        <v>13.3488490134758</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.44549627019554</v>
+        <v>32.44549627019558</v>
       </c>
       <c r="C15">
         <v>26.85656154891827</v>
       </c>
       <c r="D15">
-        <v>2.512288817107217</v>
+        <v>2.512288817107172</v>
       </c>
       <c r="F15">
-        <v>29.93632685386082</v>
+        <v>29.93632685386087</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13.31459366032558</v>
+        <v>13.31459366032552</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -776,22 +776,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.34525967612484</v>
+        <v>31.34525967612491</v>
       </c>
       <c r="C16">
-        <v>25.92365469781209</v>
+        <v>25.92365469781216</v>
       </c>
       <c r="D16">
-        <v>2.57615479911723</v>
+        <v>2.576154799117111</v>
       </c>
       <c r="F16">
-        <v>28.79732654658325</v>
+        <v>28.79732654658336</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13.1386766109407</v>
+        <v>13.13867661094059</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -802,22 +802,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.65692367828265</v>
+        <v>30.65692367828275</v>
       </c>
       <c r="C17">
         <v>25.34106038626153</v>
       </c>
       <c r="D17">
-        <v>2.616452419563024</v>
+        <v>2.61645241956291</v>
       </c>
       <c r="F17">
-        <v>28.13381074835457</v>
+        <v>28.1338107483545</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13.04832419244098</v>
+        <v>13.04832419244089</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -828,22 +828,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.2559980473016</v>
+        <v>30.25599804730167</v>
       </c>
       <c r="C18">
-        <v>25.00208819415089</v>
+        <v>25.00208819415079</v>
       </c>
       <c r="D18">
-        <v>2.640000316750244</v>
+        <v>2.6400003167502</v>
       </c>
       <c r="F18">
-        <v>27.79146669283091</v>
+        <v>27.79146669283082</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.00255606012701</v>
+        <v>13.0025560601269</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -854,22 +854,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.11938168204311</v>
+        <v>30.11938168204312</v>
       </c>
       <c r="C19">
-        <v>24.88664273715246</v>
+        <v>24.88664273715237</v>
       </c>
       <c r="D19">
-        <v>2.648033269575427</v>
+        <v>2.648033269575468</v>
       </c>
       <c r="F19">
-        <v>27.67601160003342</v>
+        <v>27.67601160003354</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12.98809966568568</v>
+        <v>12.98809966568578</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.73071491726001</v>
+        <v>30.73071491725995</v>
       </c>
       <c r="C20">
-        <v>25.4034778767264</v>
+        <v>25.40347787672649</v>
       </c>
       <c r="D20">
-        <v>2.612123549340748</v>
+        <v>2.612123549340633</v>
       </c>
       <c r="F20">
-        <v>28.19738872136969</v>
+        <v>28.19738872136954</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13.05729477227559</v>
+        <v>13.05729477227543</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>32.72550298640509</v>
       </c>
       <c r="C21">
-        <v>27.09432443309794</v>
+        <v>27.09432443309779</v>
       </c>
       <c r="D21">
-        <v>2.496183218038126</v>
+        <v>2.496183218038204</v>
       </c>
       <c r="F21">
-        <v>30.23102480641838</v>
+        <v>30.2310248064182</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13.36564453850403</v>
+        <v>13.36564453850397</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -932,22 +932,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.98672220030657</v>
+        <v>33.98672220030644</v>
       </c>
       <c r="C22">
-        <v>28.16704710335367</v>
+        <v>28.16704710335369</v>
       </c>
       <c r="D22">
-        <v>2.424679725476522</v>
+        <v>2.424679725476575</v>
       </c>
       <c r="F22">
-        <v>31.58227408671197</v>
+        <v>31.58227408671188</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13.62764957753087</v>
+        <v>13.6276495775309</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.31736212629956</v>
+        <v>33.31736212629949</v>
       </c>
       <c r="C23">
-        <v>27.59735950199051</v>
+        <v>27.59735950199044</v>
       </c>
       <c r="D23">
-        <v>2.462395169166117</v>
+        <v>2.46239516916628</v>
       </c>
       <c r="F23">
-        <v>30.86029578414102</v>
+        <v>30.86029578414107</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13.48203683974593</v>
+        <v>13.48203683974602</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -984,22 +984,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.69737009318631</v>
+        <v>30.69737009318639</v>
       </c>
       <c r="C24">
-        <v>25.37527150814655</v>
+        <v>25.37527150814654</v>
       </c>
       <c r="D24">
-        <v>2.614079456796616</v>
+        <v>2.614079456796735</v>
       </c>
       <c r="F24">
-        <v>28.16863726595713</v>
+        <v>28.16863726595703</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13.05321999446884</v>
+        <v>13.05321999446873</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1010,16 +1010,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.67864822412005</v>
+        <v>27.67864822412</v>
       </c>
       <c r="C25">
-        <v>22.82909226021628</v>
+        <v>22.8290922602164</v>
       </c>
       <c r="D25">
-        <v>2.791605133640043</v>
+        <v>2.791605133640051</v>
       </c>
       <c r="F25">
-        <v>25.71921034695064</v>
+        <v>25.71921034695059</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.28002112152454</v>
+        <v>25.28002112152449</v>
       </c>
       <c r="C2">
-        <v>20.81560613587859</v>
+        <v>20.81560613587854</v>
       </c>
       <c r="D2">
-        <v>2.931005001207038</v>
+        <v>2.931005001207163</v>
       </c>
       <c r="F2">
-        <v>24.00215650533519</v>
+        <v>24.00215650533528</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12.82380974321931</v>
+        <v>12.82380974321944</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,22 +438,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.54017583022852</v>
+        <v>23.54017583022844</v>
       </c>
       <c r="C3">
-        <v>19.36000911781049</v>
+        <v>19.36000911781066</v>
       </c>
       <c r="D3">
-        <v>3.029910878887947</v>
+        <v>3.02991087888795</v>
       </c>
       <c r="F3">
-        <v>22.89400583896478</v>
+        <v>22.89400583896485</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12.91168273636208</v>
+        <v>12.91168273636222</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -464,22 +464,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.41419061874443</v>
+        <v>22.41419061874442</v>
       </c>
       <c r="C4">
-        <v>18.42003144190979</v>
+        <v>18.4200314419099</v>
       </c>
       <c r="D4">
-        <v>3.092622817454183</v>
+        <v>3.092622817454175</v>
       </c>
       <c r="F4">
-        <v>22.24201226553416</v>
+        <v>22.24201226553429</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13.00327241867144</v>
+        <v>13.00327241867152</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -490,22 +490,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.94064531625722</v>
+        <v>21.94064531625727</v>
       </c>
       <c r="C5">
-        <v>18.02517480613507</v>
+        <v>18.02517480613493</v>
       </c>
       <c r="D5">
-        <v>3.11865592000464</v>
+        <v>3.118655920004651</v>
       </c>
       <c r="F5">
-        <v>21.98365258870149</v>
+        <v>21.98365258870137</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.04921953631915</v>
+        <v>13.04921953631897</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -519,19 +519,19 @@
         <v>21.86112061504957</v>
       </c>
       <c r="C6">
-        <v>17.95889088251353</v>
+        <v>17.95889088251358</v>
       </c>
       <c r="D6">
-        <v>3.123007047914395</v>
+        <v>3.123007047914383</v>
       </c>
       <c r="F6">
-        <v>21.94120064132637</v>
+        <v>21.94120064132639</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13.05734588094941</v>
+        <v>13.05734588094951</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -542,22 +542,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.40786396620386</v>
+        <v>22.40786396620382</v>
       </c>
       <c r="C7">
-        <v>18.41475431027269</v>
+        <v>18.41475431027266</v>
       </c>
       <c r="D7">
-        <v>3.092971998572665</v>
+        <v>3.092971998572603</v>
       </c>
       <c r="F7">
-        <v>22.23849799227093</v>
+        <v>22.23849799227105</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13.0038582498246</v>
+        <v>13.00385824982471</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -568,22 +568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.69198592791876</v>
+        <v>24.69198592791891</v>
       </c>
       <c r="C8">
-        <v>20.32319908851415</v>
+        <v>20.32319908851433</v>
       </c>
       <c r="D8">
-        <v>2.964680906141707</v>
+        <v>2.964680906141252</v>
       </c>
       <c r="F8">
-        <v>23.61427639864453</v>
+        <v>23.61427639864449</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12.84578414301972</v>
+        <v>12.8457841430195</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -594,22 +594,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.72220053798947</v>
+        <v>28.72220053798965</v>
       </c>
       <c r="C9">
-        <v>23.70768735646826</v>
+        <v>23.70768735646835</v>
       </c>
       <c r="D9">
-        <v>2.730285227513041</v>
+        <v>2.730285227512855</v>
       </c>
       <c r="F9">
-        <v>26.53092708031097</v>
+        <v>26.5309270803109</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.87276755612424</v>
+        <v>12.872767556124</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -620,22 +620,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.42313124307513</v>
+        <v>31.42313124307509</v>
       </c>
       <c r="C10">
-        <v>25.98961414874568</v>
+        <v>25.98961414874564</v>
       </c>
       <c r="D10">
-        <v>2.571609490804889</v>
+        <v>2.571609490804888</v>
       </c>
       <c r="F10">
-        <v>28.87693805992249</v>
+        <v>28.8769380599225</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13.14984536390943</v>
+        <v>13.14984536390944</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -646,22 +646,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.59875557522175</v>
+        <v>32.59875557522189</v>
       </c>
       <c r="C11">
-        <v>26.9866816076783</v>
+        <v>26.98668160767845</v>
       </c>
       <c r="D11">
-        <v>2.503464777547747</v>
+        <v>2.503464777547702</v>
       </c>
       <c r="F11">
-        <v>30.09738682635449</v>
+        <v>30.09738682635453</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13.34221775084972</v>
+        <v>13.34221775084959</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -672,22 +672,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.0366201241768</v>
+        <v>33.03662012417688</v>
       </c>
       <c r="C12">
         <v>27.35867035304557</v>
       </c>
       <c r="D12">
-        <v>2.478375953677567</v>
+        <v>2.478375953677513</v>
       </c>
       <c r="F12">
-        <v>30.56073557975793</v>
+        <v>30.56073557975805</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13.42538699077616</v>
+        <v>13.4253869907761</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -698,22 +698,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.94263837390033</v>
+        <v>32.94263837390032</v>
       </c>
       <c r="C13">
-        <v>27.27879860878934</v>
+        <v>27.27879860878922</v>
       </c>
       <c r="D13">
-        <v>2.483744808524355</v>
+        <v>2.48374480852437</v>
       </c>
       <c r="F13">
-        <v>30.46088599345301</v>
+        <v>30.46088599345297</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13.40700416285486</v>
+        <v>13.40700416285485</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.63492374290835</v>
+        <v>32.63492374290829</v>
       </c>
       <c r="C14">
         <v>27.01739521264575</v>
       </c>
       <c r="D14">
-        <v>2.501385423285409</v>
+        <v>2.501385423285359</v>
       </c>
       <c r="F14">
-        <v>30.13548075821925</v>
+        <v>30.13548075821907</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13.3488490134758</v>
+        <v>13.34884901347575</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.44549627019558</v>
+        <v>32.44549627019554</v>
       </c>
       <c r="C15">
         <v>26.85656154891827</v>
       </c>
       <c r="D15">
-        <v>2.512288817107172</v>
+        <v>2.512288817107217</v>
       </c>
       <c r="F15">
-        <v>29.93632685386087</v>
+        <v>29.93632685386082</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13.31459366032552</v>
+        <v>13.31459366032558</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -776,22 +776,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.34525967612491</v>
+        <v>31.34525967612484</v>
       </c>
       <c r="C16">
-        <v>25.92365469781216</v>
+        <v>25.92365469781209</v>
       </c>
       <c r="D16">
-        <v>2.576154799117111</v>
+        <v>2.57615479911723</v>
       </c>
       <c r="F16">
-        <v>28.79732654658336</v>
+        <v>28.79732654658325</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13.13867661094059</v>
+        <v>13.1386766109407</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -802,22 +802,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.65692367828275</v>
+        <v>30.65692367828265</v>
       </c>
       <c r="C17">
         <v>25.34106038626153</v>
       </c>
       <c r="D17">
-        <v>2.61645241956291</v>
+        <v>2.616452419563024</v>
       </c>
       <c r="F17">
-        <v>28.1338107483545</v>
+        <v>28.13381074835457</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13.04832419244089</v>
+        <v>13.04832419244098</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -828,22 +828,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.25599804730167</v>
+        <v>30.2559980473016</v>
       </c>
       <c r="C18">
-        <v>25.00208819415079</v>
+        <v>25.00208819415089</v>
       </c>
       <c r="D18">
-        <v>2.6400003167502</v>
+        <v>2.640000316750244</v>
       </c>
       <c r="F18">
-        <v>27.79146669283082</v>
+        <v>27.79146669283091</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.0025560601269</v>
+        <v>13.00255606012701</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -854,22 +854,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.11938168204312</v>
+        <v>30.11938168204311</v>
       </c>
       <c r="C19">
-        <v>24.88664273715237</v>
+        <v>24.88664273715246</v>
       </c>
       <c r="D19">
-        <v>2.648033269575468</v>
+        <v>2.648033269575427</v>
       </c>
       <c r="F19">
-        <v>27.67601160003354</v>
+        <v>27.67601160003342</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12.98809966568578</v>
+        <v>12.98809966568568</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.73071491725995</v>
+        <v>30.73071491726001</v>
       </c>
       <c r="C20">
-        <v>25.40347787672649</v>
+        <v>25.4034778767264</v>
       </c>
       <c r="D20">
-        <v>2.612123549340633</v>
+        <v>2.612123549340748</v>
       </c>
       <c r="F20">
-        <v>28.19738872136954</v>
+        <v>28.19738872136969</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13.05729477227543</v>
+        <v>13.05729477227559</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>32.72550298640509</v>
       </c>
       <c r="C21">
-        <v>27.09432443309779</v>
+        <v>27.09432443309794</v>
       </c>
       <c r="D21">
-        <v>2.496183218038204</v>
+        <v>2.496183218038126</v>
       </c>
       <c r="F21">
-        <v>30.2310248064182</v>
+        <v>30.23102480641838</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13.36564453850397</v>
+        <v>13.36564453850403</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -932,22 +932,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.98672220030644</v>
+        <v>33.98672220030657</v>
       </c>
       <c r="C22">
-        <v>28.16704710335369</v>
+        <v>28.16704710335367</v>
       </c>
       <c r="D22">
-        <v>2.424679725476575</v>
+        <v>2.424679725476522</v>
       </c>
       <c r="F22">
-        <v>31.58227408671188</v>
+        <v>31.58227408671197</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13.6276495775309</v>
+        <v>13.62764957753087</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.31736212629949</v>
+        <v>33.31736212629956</v>
       </c>
       <c r="C23">
-        <v>27.59735950199044</v>
+        <v>27.59735950199051</v>
       </c>
       <c r="D23">
-        <v>2.46239516916628</v>
+        <v>2.462395169166117</v>
       </c>
       <c r="F23">
-        <v>30.86029578414107</v>
+        <v>30.86029578414102</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13.48203683974602</v>
+        <v>13.48203683974593</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -984,22 +984,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.69737009318639</v>
+        <v>30.69737009318631</v>
       </c>
       <c r="C24">
-        <v>25.37527150814654</v>
+        <v>25.37527150814655</v>
       </c>
       <c r="D24">
-        <v>2.614079456796735</v>
+        <v>2.614079456796616</v>
       </c>
       <c r="F24">
-        <v>28.16863726595703</v>
+        <v>28.16863726595713</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13.05321999446873</v>
+        <v>13.05321999446884</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1010,16 +1010,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.67864822412</v>
+        <v>27.67864822412005</v>
       </c>
       <c r="C25">
-        <v>22.8290922602164</v>
+        <v>22.82909226021628</v>
       </c>
       <c r="D25">
-        <v>2.791605133640051</v>
+        <v>2.791605133640043</v>
       </c>
       <c r="F25">
-        <v>25.71921034695059</v>
+        <v>25.71921034695064</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,628 +406,703 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.28002112152449</v>
+        <v>25.17194283580153</v>
       </c>
       <c r="C2">
-        <v>20.81560613587854</v>
+        <v>20.67987585803721</v>
       </c>
       <c r="D2">
-        <v>2.931005001207163</v>
+        <v>3.066535040438696</v>
       </c>
       <c r="F2">
-        <v>24.00215650533528</v>
+        <v>24.16086912997654</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.049847074043283</v>
       </c>
       <c r="H2">
-        <v>12.82380974321944</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>13.07770021714237</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.54017583022844</v>
+        <v>23.43540325956858</v>
       </c>
       <c r="C3">
-        <v>19.36000911781066</v>
+        <v>19.22830768716706</v>
       </c>
       <c r="D3">
-        <v>3.02991087888795</v>
+        <v>3.16826303384307</v>
       </c>
       <c r="F3">
-        <v>22.89400583896485</v>
+        <v>23.10101046543765</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.060309135454493</v>
       </c>
       <c r="H3">
-        <v>12.91168273636222</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>13.18943409458418</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.41419061874442</v>
+        <v>22.3114200816018</v>
       </c>
       <c r="C4">
-        <v>18.4200314419099</v>
+        <v>18.29079196921512</v>
       </c>
       <c r="D4">
-        <v>3.092622817454175</v>
+        <v>3.232595423701719</v>
       </c>
       <c r="F4">
-        <v>22.24201226553429</v>
+        <v>22.48081027681737</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.06686569341938</v>
       </c>
       <c r="H4">
-        <v>13.00327241867152</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>13.29480471103844</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.94064531625727</v>
+        <v>21.83868284480826</v>
       </c>
       <c r="C5">
-        <v>18.02517480613493</v>
+        <v>17.89693523091277</v>
       </c>
       <c r="D5">
-        <v>3.118655920004651</v>
+        <v>3.25926708280674</v>
       </c>
       <c r="F5">
-        <v>21.98365258870137</v>
+        <v>22.23589960296</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.069573577141173</v>
       </c>
       <c r="H5">
-        <v>13.04921953631897</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>13.34616255436278</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.86112061504957</v>
+        <v>21.75929181320247</v>
       </c>
       <c r="C6">
-        <v>17.95889088251358</v>
+        <v>17.83081710854502</v>
       </c>
       <c r="D6">
-        <v>3.123007047914383</v>
+        <v>3.263723093494949</v>
       </c>
       <c r="F6">
-        <v>21.94120064132639</v>
+        <v>22.19570907385301</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.070025468611465</v>
       </c>
       <c r="H6">
-        <v>13.05734588094951</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>13.35517548412319</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.40786396620382</v>
+        <v>22.30510436006881</v>
       </c>
       <c r="C7">
-        <v>18.41475431027266</v>
+        <v>18.28552833730967</v>
       </c>
       <c r="D7">
-        <v>3.092971998572603</v>
+        <v>3.232953297151594</v>
       </c>
       <c r="F7">
-        <v>22.23849799227105</v>
+        <v>22.47747545415336</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.06690206365479</v>
       </c>
       <c r="H7">
-        <v>13.00385824982471</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>13.29546432065194</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.69198592791891</v>
+        <v>24.58505294547935</v>
       </c>
       <c r="C8">
-        <v>20.32319908851433</v>
+        <v>20.18886039236327</v>
       </c>
       <c r="D8">
-        <v>2.964680906141252</v>
+        <v>3.101211603483407</v>
       </c>
       <c r="F8">
-        <v>23.61427639864449</v>
+        <v>23.78917168473879</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.053428484908621</v>
       </c>
       <c r="H8">
-        <v>12.8457841430195</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>13.10808814160655</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.72220053798965</v>
+        <v>28.60686088698002</v>
       </c>
       <c r="C9">
-        <v>23.70768735646835</v>
+        <v>23.56320734457017</v>
       </c>
       <c r="D9">
-        <v>2.730285227512855</v>
+        <v>2.858790356523925</v>
       </c>
       <c r="F9">
-        <v>26.5309270803109</v>
+        <v>26.59856665133382</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.027928951866058</v>
       </c>
       <c r="H9">
-        <v>12.872767556124</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>13.07058130884106</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.42313124307509</v>
+        <v>31.30142204551378</v>
       </c>
       <c r="C10">
-        <v>25.98961414874564</v>
+        <v>25.83752712889877</v>
       </c>
       <c r="D10">
-        <v>2.571609490804888</v>
+        <v>2.692786153467052</v>
       </c>
       <c r="F10">
-        <v>28.8769380599225</v>
+        <v>28.8036391162044</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.009550867382321</v>
       </c>
       <c r="H10">
-        <v>13.14984536390944</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>13.29668037314845</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.59875557522189</v>
+        <v>32.47407915232336</v>
       </c>
       <c r="C11">
-        <v>26.98668160767845</v>
+        <v>26.83106509353055</v>
       </c>
       <c r="D11">
-        <v>2.503464777547702</v>
+        <v>2.620792070988589</v>
       </c>
       <c r="F11">
-        <v>30.09738682635453</v>
+        <v>29.97512766384737</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.001214547688968</v>
       </c>
       <c r="H11">
-        <v>13.34221775084959</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>13.46548360617247</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.03662012417688</v>
+        <v>32.9108066792918</v>
       </c>
       <c r="C12">
-        <v>27.35867035304557</v>
+        <v>27.20170326233749</v>
       </c>
       <c r="D12">
-        <v>2.478375953677513</v>
+        <v>2.594149001377733</v>
       </c>
       <c r="F12">
-        <v>30.56073557975805</v>
+        <v>30.42995996560164</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.998056135479172</v>
       </c>
       <c r="H12">
-        <v>13.4253869907761</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>13.539721312619</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.94263837390032</v>
+        <v>32.81707046709052</v>
       </c>
       <c r="C13">
-        <v>27.27879860878922</v>
+        <v>27.12212309022674</v>
       </c>
       <c r="D13">
-        <v>2.48374480852437</v>
+        <v>2.59985729732357</v>
       </c>
       <c r="F13">
-        <v>30.46088599345297</v>
+        <v>30.33192905981895</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.99873651679802</v>
       </c>
       <c r="H13">
-        <v>13.40700416285485</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>13.5232614949709</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.63492374290829</v>
+        <v>32.51015406783056</v>
       </c>
       <c r="C14">
-        <v>27.01739521264575</v>
+        <v>26.86166789442957</v>
       </c>
       <c r="D14">
-        <v>2.501385423285359</v>
+        <v>2.618586929914956</v>
       </c>
       <c r="F14">
-        <v>30.13548075821907</v>
+        <v>30.01251391712649</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.000954767406353</v>
       </c>
       <c r="H14">
-        <v>13.34884901347575</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>13.47137989359853</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.44549627019554</v>
+        <v>32.32121367365539</v>
       </c>
       <c r="C15">
-        <v>26.85656154891827</v>
+        <v>26.70141306275571</v>
       </c>
       <c r="D15">
-        <v>2.512288817107217</v>
+        <v>2.630144050587655</v>
       </c>
       <c r="F15">
-        <v>29.93632685386082</v>
+        <v>29.81707499927233</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.002313135426958</v>
       </c>
       <c r="H15">
-        <v>13.31459366032558</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>13.4409679882317</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.34525967612484</v>
+        <v>31.22374272412338</v>
       </c>
       <c r="C16">
-        <v>25.92365469781209</v>
+        <v>25.77179662272651</v>
       </c>
       <c r="D16">
-        <v>2.57615479911723</v>
+        <v>2.697570846256806</v>
       </c>
       <c r="F16">
-        <v>28.79732654658325</v>
+        <v>28.73667780241561</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.010095729216781</v>
       </c>
       <c r="H16">
-        <v>13.1386766109407</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>13.28704822493328</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.65692367828265</v>
+        <v>30.53708339954496</v>
       </c>
       <c r="C17">
-        <v>25.34106038626153</v>
+        <v>25.19120059809727</v>
       </c>
       <c r="D17">
-        <v>2.616452419563024</v>
+        <v>2.739906413360689</v>
       </c>
       <c r="F17">
-        <v>28.13381074835457</v>
+        <v>28.15336479179811</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.014872833536088</v>
       </c>
       <c r="H17">
-        <v>13.04832419244098</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>13.2101249549996</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.2559980473016</v>
+        <v>30.13711584276121</v>
       </c>
       <c r="C18">
-        <v>25.00208819415089</v>
+        <v>24.85337157587453</v>
       </c>
       <c r="D18">
-        <v>2.640000316750244</v>
+        <v>2.764579567907644</v>
       </c>
       <c r="F18">
-        <v>27.79146669283091</v>
+        <v>27.82079493883427</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.017623093991336</v>
       </c>
       <c r="H18">
-        <v>13.00255606012701</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>13.17204174603634</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.11938168204311</v>
+        <v>30.00082287006115</v>
       </c>
       <c r="C19">
-        <v>24.88664273715246</v>
+        <v>24.73831222120116</v>
       </c>
       <c r="D19">
-        <v>2.648033269575427</v>
+        <v>2.772986059875271</v>
       </c>
       <c r="F19">
-        <v>27.67601160003342</v>
+        <v>27.70869312544865</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.018554874657191</v>
       </c>
       <c r="H19">
-        <v>12.98809966568568</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>13.16017927955431</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.73071491726001</v>
+        <v>30.61069682770257</v>
       </c>
       <c r="C20">
-        <v>25.4034778767264</v>
+        <v>25.25340603472623</v>
       </c>
       <c r="D20">
-        <v>2.612123549340748</v>
+        <v>2.735365602602792</v>
       </c>
       <c r="F20">
-        <v>28.19738872136969</v>
+        <v>28.21515459982838</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.014364068521677</v>
       </c>
       <c r="H20">
-        <v>13.05729477227559</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>13.21766970985457</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.72550298640509</v>
+        <v>32.60049924665246</v>
       </c>
       <c r="C21">
-        <v>27.09432443309794</v>
+        <v>26.93831902449115</v>
       </c>
       <c r="D21">
-        <v>2.496183218038126</v>
+        <v>2.61306767852459</v>
       </c>
       <c r="F21">
-        <v>30.23102480641838</v>
+        <v>30.10628902342508</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.000303301538441</v>
       </c>
       <c r="H21">
-        <v>13.36564453850403</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>13.48633248054131</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.98672220030657</v>
+        <v>33.85837966267026</v>
       </c>
       <c r="C22">
-        <v>28.16704710335367</v>
+        <v>28.00707923662411</v>
       </c>
       <c r="D22">
-        <v>2.424679725476522</v>
+        <v>2.536832058442932</v>
       </c>
       <c r="F22">
-        <v>31.58227408671197</v>
+        <v>31.43338294330619</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.991101403020233</v>
       </c>
       <c r="H22">
-        <v>13.62764957753087</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>13.72238888183456</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.31736212629956</v>
+        <v>33.19081029913029</v>
       </c>
       <c r="C23">
-        <v>27.59735950199051</v>
+        <v>27.43951586023135</v>
       </c>
       <c r="D23">
-        <v>2.462395169166117</v>
+        <v>2.577134689114144</v>
       </c>
       <c r="F23">
-        <v>30.86029578414102</v>
+        <v>30.72411679266436</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.996015626133629</v>
       </c>
       <c r="H23">
-        <v>13.48203683974593</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>13.59060888957453</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.69737009318631</v>
+        <v>30.57743240993594</v>
       </c>
       <c r="C24">
-        <v>25.37527150814655</v>
+        <v>25.22529555305886</v>
       </c>
       <c r="D24">
-        <v>2.614079456796616</v>
+        <v>2.737417471226076</v>
       </c>
       <c r="F24">
-        <v>28.16863726595713</v>
+        <v>28.18721076653911</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.014594068851786</v>
       </c>
       <c r="H24">
-        <v>13.05321999446884</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>13.21423966221709</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.67864822412005</v>
+        <v>27.56560991471462</v>
       </c>
       <c r="C25">
-        <v>22.82909226021628</v>
+        <v>22.68737412907149</v>
       </c>
       <c r="D25">
-        <v>2.791605133640043</v>
+        <v>2.922475351901793</v>
       </c>
       <c r="F25">
-        <v>25.71921034695064</v>
+        <v>25.81374172650876</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.034748368784417</v>
       </c>
       <c r="H25">
-        <v>12.82397687907647</v>
-      </c>
-      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>13.03996502992834</v>
+      </c>
+      <c r="K25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,700 +409,850 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.17194283580153</v>
+        <v>20.56847115671052</v>
       </c>
       <c r="C2">
-        <v>20.67987585803721</v>
+        <v>14.0643961956073</v>
       </c>
       <c r="D2">
-        <v>3.066535040438696</v>
+        <v>4.259756548850726</v>
       </c>
       <c r="F2">
-        <v>24.16086912997654</v>
+        <v>34.60847112765887</v>
       </c>
       <c r="G2">
-        <v>2.049847074043283</v>
+        <v>2.07463775494361</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.07770021714237</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.03673187031334</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.43540325956858</v>
+        <v>19.10280186335814</v>
       </c>
       <c r="C3">
-        <v>19.22830768716706</v>
+        <v>13.09068027381103</v>
       </c>
       <c r="D3">
-        <v>3.16826303384307</v>
+        <v>4.352219145256059</v>
       </c>
       <c r="F3">
-        <v>23.10101046543765</v>
+        <v>33.00032386498178</v>
       </c>
       <c r="G3">
-        <v>2.060309135454493</v>
+        <v>2.08559462370699</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.18943409458418</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.78193278296905</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.3114200816018</v>
+        <v>18.15678948193655</v>
       </c>
       <c r="C4">
-        <v>18.29079196921512</v>
+        <v>12.46257367054332</v>
       </c>
       <c r="D4">
-        <v>3.232595423701719</v>
+        <v>4.410410688619053</v>
       </c>
       <c r="F4">
-        <v>22.48081027681737</v>
+        <v>32.01910327688781</v>
       </c>
       <c r="G4">
-        <v>2.06686569341938</v>
+        <v>2.09245718534815</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.29480471103844</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.97212320767106</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.83868284480826</v>
+        <v>17.75950890177684</v>
       </c>
       <c r="C5">
-        <v>17.89693523091277</v>
+        <v>12.19888480472041</v>
       </c>
       <c r="D5">
-        <v>3.25926708280674</v>
+        <v>4.434469263964531</v>
       </c>
       <c r="F5">
-        <v>22.23589960296</v>
+        <v>31.62109981631513</v>
       </c>
       <c r="G5">
-        <v>2.069573577141173</v>
+        <v>2.095290591657977</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.34616255436278</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.63206297160012</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.75929181320247</v>
+        <v>17.69282456654826</v>
       </c>
       <c r="C6">
-        <v>17.83081710854502</v>
+        <v>12.15462909262777</v>
       </c>
       <c r="D6">
-        <v>3.263723093494949</v>
+        <v>4.438484734649768</v>
       </c>
       <c r="F6">
-        <v>22.19570907385301</v>
+        <v>31.55513344711684</v>
       </c>
       <c r="G6">
-        <v>2.070025468611465</v>
+        <v>2.095763383246018</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.35517548412319</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.57498441011045</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.30510436006881</v>
+        <v>18.15147951969977</v>
       </c>
       <c r="C7">
-        <v>18.28552833730967</v>
+        <v>12.45904892927751</v>
       </c>
       <c r="D7">
-        <v>3.232953297151594</v>
+        <v>4.410733766860996</v>
       </c>
       <c r="F7">
-        <v>22.47747545415336</v>
+        <v>32.0137277238189</v>
       </c>
       <c r="G7">
-        <v>2.06690206365479</v>
+        <v>2.092495244749923</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.29546432065194</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.96757795664041</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.58505294547935</v>
+        <v>20.07255829497404</v>
       </c>
       <c r="C8">
-        <v>20.18886039236327</v>
+        <v>13.73485625847885</v>
       </c>
       <c r="D8">
-        <v>3.101211603483407</v>
+        <v>4.291334801337532</v>
       </c>
       <c r="F8">
-        <v>23.78917168473879</v>
+        <v>34.0528521691561</v>
       </c>
       <c r="G8">
-        <v>2.053428484908621</v>
+        <v>2.078389494547891</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.10808814160655</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.61214616781975</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.60686088698002</v>
+        <v>23.48318248216372</v>
       </c>
       <c r="C9">
-        <v>23.56320734457017</v>
+        <v>16.00304656241614</v>
       </c>
       <c r="D9">
-        <v>2.858790356523925</v>
+        <v>4.069224900576515</v>
       </c>
       <c r="F9">
-        <v>26.59856665133382</v>
+        <v>38.09198610320793</v>
       </c>
       <c r="G9">
-        <v>2.027928951866058</v>
+        <v>2.051653577117787</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.07058130884106</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20.53271046260573</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.30142204551378</v>
+        <v>25.78547587968876</v>
       </c>
       <c r="C10">
-        <v>25.83752712889877</v>
+        <v>17.5368047434898</v>
       </c>
       <c r="D10">
-        <v>2.692786153467052</v>
+        <v>3.914952384055584</v>
       </c>
       <c r="F10">
-        <v>28.8036391162044</v>
+        <v>41.0798811544719</v>
       </c>
       <c r="G10">
-        <v>2.009550867382321</v>
+        <v>2.032346203167933</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.29668037314845</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22.50494508155019</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.47407915232336</v>
+        <v>26.79216461301553</v>
       </c>
       <c r="C11">
-        <v>26.83106509353055</v>
+        <v>18.20823509364859</v>
       </c>
       <c r="D11">
-        <v>2.620792070988589</v>
+        <v>3.847256959065923</v>
       </c>
       <c r="F11">
-        <v>29.97512766384737</v>
+        <v>42.44497386434983</v>
       </c>
       <c r="G11">
-        <v>2.001214547688968</v>
+        <v>2.023576288860177</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.46548360617247</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>23.36754324427939</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.9108066792918</v>
+        <v>27.1678589475455</v>
       </c>
       <c r="C12">
-        <v>27.20170326233749</v>
+        <v>18.45894679014044</v>
       </c>
       <c r="D12">
-        <v>2.594149001377733</v>
+        <v>3.822046279978101</v>
       </c>
       <c r="F12">
-        <v>30.42995996560164</v>
+        <v>42.96302782918531</v>
       </c>
       <c r="G12">
-        <v>1.998056135479172</v>
+        <v>2.020251481109996</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.539721312619</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>23.68950303161729</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.81707046709052</v>
+        <v>27.08718617134727</v>
       </c>
       <c r="C13">
-        <v>27.12212309022674</v>
+        <v>18.40510509768574</v>
       </c>
       <c r="D13">
-        <v>2.59985729732357</v>
+        <v>3.827455704190087</v>
       </c>
       <c r="F13">
-        <v>30.33192905981895</v>
+        <v>42.8513997472604</v>
       </c>
       <c r="G13">
-        <v>1.99873651679802</v>
+        <v>2.020967808148396</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.5232614949709</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>23.62036677050251</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.51015406783056</v>
+        <v>26.82318176090814</v>
       </c>
       <c r="C14">
-        <v>26.86166789442957</v>
+        <v>18.22893087260388</v>
       </c>
       <c r="D14">
-        <v>2.618586929914956</v>
+        <v>3.845173906051948</v>
       </c>
       <c r="F14">
-        <v>30.01251391712649</v>
+        <v>42.48756987277054</v>
       </c>
       <c r="G14">
-        <v>2.000954767406353</v>
+        <v>2.023302867360191</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.47137989359853</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23.39412324886498</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.32121367365539</v>
+        <v>26.66076336881458</v>
       </c>
       <c r="C15">
-        <v>26.70141306275571</v>
+        <v>18.12056499570419</v>
       </c>
       <c r="D15">
-        <v>2.630144050587655</v>
+        <v>3.856084376216428</v>
       </c>
       <c r="F15">
-        <v>29.81707499927233</v>
+        <v>42.26487047121319</v>
       </c>
       <c r="G15">
-        <v>2.002313135426958</v>
+        <v>2.02473247611728</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.4409679882317</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>23.25494120261811</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.22374272412338</v>
+        <v>25.71889571442646</v>
       </c>
       <c r="C16">
-        <v>25.77179662272651</v>
+        <v>17.49241570841147</v>
       </c>
       <c r="D16">
-        <v>2.697570846256806</v>
+        <v>3.919431702232242</v>
       </c>
       <c r="F16">
-        <v>28.73667780241561</v>
+        <v>40.99080799578316</v>
       </c>
       <c r="G16">
-        <v>2.010095729216781</v>
+        <v>2.032919130734647</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.28704822493328</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>22.44789999040953</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.53708339954496</v>
+        <v>25.1309026389667</v>
       </c>
       <c r="C17">
-        <v>25.19120059809727</v>
+        <v>17.10049253153213</v>
       </c>
       <c r="D17">
-        <v>2.739906413360689</v>
+        <v>3.958971109258766</v>
       </c>
       <c r="F17">
-        <v>28.15336479179811</v>
+        <v>40.21087199235485</v>
       </c>
       <c r="G17">
-        <v>2.014872833536088</v>
+        <v>2.037940911418356</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.2101249549996</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>21.94414141909602</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.13711584276121</v>
+        <v>24.78885798798659</v>
       </c>
       <c r="C18">
-        <v>24.85337157587453</v>
+        <v>16.87257898105242</v>
       </c>
       <c r="D18">
-        <v>2.764579567907644</v>
+        <v>3.981941903087034</v>
       </c>
       <c r="F18">
-        <v>27.82079493883427</v>
+        <v>39.76280245191216</v>
       </c>
       <c r="G18">
-        <v>2.017623093991336</v>
+        <v>2.04083092593968</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.17204174603634</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>21.65111885580409</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.00082287006115</v>
+        <v>24.67237757871461</v>
       </c>
       <c r="C19">
-        <v>24.73831222120116</v>
+        <v>16.79497707858895</v>
       </c>
       <c r="D19">
-        <v>2.772986059875271</v>
+        <v>3.989756981296736</v>
       </c>
       <c r="F19">
-        <v>27.70869312544865</v>
+        <v>39.61117851017198</v>
       </c>
       <c r="G19">
-        <v>2.018554874657191</v>
+        <v>2.041809874796358</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.16017927955431</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>21.55133601597679</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.61069682770257</v>
+        <v>25.19389137342853</v>
       </c>
       <c r="C20">
-        <v>25.25340603472623</v>
+        <v>17.14246949027438</v>
       </c>
       <c r="D20">
-        <v>2.735365602602792</v>
+        <v>3.954737971758314</v>
       </c>
       <c r="F20">
-        <v>28.21515459982838</v>
+        <v>40.29384120269488</v>
       </c>
       <c r="G20">
-        <v>2.014364068521677</v>
+        <v>2.037406205617685</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.21766970985457</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>21.99810426612472</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.60049924665246</v>
+        <v>26.90087317465991</v>
       </c>
       <c r="C21">
-        <v>26.93831902449115</v>
+        <v>18.28077167769512</v>
       </c>
       <c r="D21">
-        <v>2.61306767852459</v>
+        <v>3.839957496486033</v>
       </c>
       <c r="F21">
-        <v>30.10628902342508</v>
+        <v>42.59440212980374</v>
       </c>
       <c r="G21">
-        <v>2.000303301538441</v>
+        <v>2.022617157457498</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.48633248054131</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>23.46070121615537</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.85837966267026</v>
+        <v>27.98451069552526</v>
       </c>
       <c r="C22">
-        <v>28.00707923662411</v>
+        <v>19.00419121279639</v>
       </c>
       <c r="D22">
-        <v>2.536832058442932</v>
+        <v>3.767460549075941</v>
       </c>
       <c r="F22">
-        <v>31.43338294330619</v>
+        <v>44.1047314544853</v>
       </c>
       <c r="G22">
-        <v>1.991101403020233</v>
+        <v>2.012926057407628</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.72238888183456</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>24.38943091116377</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.19081029913029</v>
+        <v>27.40895956456868</v>
       </c>
       <c r="C23">
-        <v>27.43951586023135</v>
+        <v>18.61988064783775</v>
       </c>
       <c r="D23">
-        <v>2.577134689114144</v>
+        <v>3.805895412899259</v>
       </c>
       <c r="F23">
-        <v>30.72411679266436</v>
+        <v>43.29789033472271</v>
       </c>
       <c r="G23">
-        <v>1.996015626133629</v>
+        <v>2.018102831297377</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.59060888957453</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>23.89613162942744</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.57743240993594</v>
+        <v>25.16542664855829</v>
       </c>
       <c r="C24">
-        <v>25.22529555305886</v>
+        <v>17.12349979711415</v>
       </c>
       <c r="D24">
-        <v>2.737417471226076</v>
+        <v>3.956651033387686</v>
       </c>
       <c r="F24">
-        <v>28.18721076653911</v>
+        <v>40.25632982613391</v>
       </c>
       <c r="G24">
-        <v>2.014594068851786</v>
+        <v>2.037647936576051</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.21423966221709</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>21.97371829001519</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.56560991471462</v>
+        <v>22.59734180327186</v>
       </c>
       <c r="C25">
-        <v>22.68737412907149</v>
+        <v>15.41351135774503</v>
       </c>
       <c r="D25">
-        <v>2.922475351901793</v>
+        <v>4.127892299067844</v>
       </c>
       <c r="F25">
-        <v>25.81374172650876</v>
+        <v>36.99579643259401</v>
       </c>
       <c r="G25">
-        <v>2.034748368784417</v>
+        <v>2.058809272108331</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.03996502992834</v>
+        <v>0</v>
       </c>
       <c r="K25">
+        <v>19.77403666694672</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.56847115671052</v>
+        <v>25.05709549071114</v>
       </c>
       <c r="C2">
-        <v>14.0643961956073</v>
+        <v>18.43455480353887</v>
       </c>
       <c r="D2">
-        <v>4.259756548850726</v>
+        <v>5.407431435898049</v>
       </c>
       <c r="F2">
-        <v>34.60847112765887</v>
+        <v>10.1409742516714</v>
       </c>
       <c r="G2">
-        <v>2.07463775494361</v>
+        <v>8.932195895843588</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.62229858312653</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.03673187031334</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>7.527488028012767</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.10280186335814</v>
+        <v>23.45700067913499</v>
       </c>
       <c r="C3">
-        <v>13.09068027381103</v>
+        <v>17.36951960606437</v>
       </c>
       <c r="D3">
-        <v>4.352219145256059</v>
+        <v>5.105918182313776</v>
       </c>
       <c r="F3">
-        <v>33.00032386498178</v>
+        <v>10.07192910348617</v>
       </c>
       <c r="G3">
-        <v>2.08559462370699</v>
+        <v>8.921104890186228</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.793528865650396</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.78193278296905</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>7.785712253019224</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.15678948193655</v>
+        <v>22.41703471054155</v>
       </c>
       <c r="C4">
-        <v>12.46257367054332</v>
+        <v>16.68218053430303</v>
       </c>
       <c r="D4">
-        <v>4.410410688619053</v>
+        <v>4.911172226086602</v>
       </c>
       <c r="F4">
-        <v>32.01910327688781</v>
+        <v>10.05595898407429</v>
       </c>
       <c r="G4">
-        <v>2.09245718534815</v>
+        <v>8.971201270101036</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.904399339021933</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.97212320767106</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>7.96116822572523</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.75950890177684</v>
+        <v>21.97878457997966</v>
       </c>
       <c r="C5">
-        <v>12.19888480472041</v>
+        <v>16.39382914437381</v>
       </c>
       <c r="D5">
-        <v>4.434469263964531</v>
+        <v>4.829429722655618</v>
       </c>
       <c r="F5">
-        <v>31.62109981631513</v>
+        <v>10.05579380410579</v>
       </c>
       <c r="G5">
-        <v>2.095290591657977</v>
+        <v>9.004881808480407</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.950965216653584</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.63206297160012</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>8.036577371114616</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.69282456654826</v>
+        <v>21.9051408854451</v>
       </c>
       <c r="C6">
-        <v>12.15462909262777</v>
+        <v>16.34545500471783</v>
       </c>
       <c r="D6">
-        <v>4.438484734649768</v>
+        <v>4.815713814905533</v>
       </c>
       <c r="F6">
-        <v>31.55513344711684</v>
+        <v>10.0561399039541</v>
       </c>
       <c r="G6">
-        <v>2.095763383246018</v>
+        <v>9.011242263825322</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.958779608937103</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.57498441011045</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>8.04932591705116</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.15147951969977</v>
+        <v>22.41118282767298</v>
       </c>
       <c r="C7">
-        <v>12.45904892927751</v>
+        <v>16.67832493264204</v>
       </c>
       <c r="D7">
-        <v>4.410733766860996</v>
+        <v>4.910079408174013</v>
       </c>
       <c r="F7">
-        <v>32.0137277238189</v>
+        <v>10.05593150178168</v>
       </c>
       <c r="G7">
-        <v>2.092495244749923</v>
+        <v>8.971603277207979</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5.905021802791869</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.96757795664041</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>7.962169812189749</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.07255829497404</v>
+        <v>24.51731356474073</v>
       </c>
       <c r="C8">
-        <v>13.73485625847885</v>
+        <v>18.07433873844066</v>
       </c>
       <c r="D8">
-        <v>4.291334801337532</v>
+        <v>5.30548419141602</v>
       </c>
       <c r="F8">
-        <v>34.0528521691561</v>
+        <v>10.11151473999458</v>
       </c>
       <c r="G8">
-        <v>2.078389494547891</v>
+        <v>8.915989655036896</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.680111822348707</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.61214616781975</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>7.612796423825567</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.48318248216372</v>
+        <v>28.19194943596037</v>
       </c>
       <c r="C9">
-        <v>16.00304656241614</v>
+        <v>20.54229594911979</v>
       </c>
       <c r="D9">
-        <v>4.069224900576515</v>
+        <v>6.003427767733434</v>
       </c>
       <c r="F9">
-        <v>38.09198610320793</v>
+        <v>10.44120684986364</v>
       </c>
       <c r="G9">
-        <v>2.051653577117787</v>
+        <v>9.293315943577857</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.287608384460944</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.53271046260573</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>7.07944051984144</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.78547587968876</v>
+        <v>30.61612542205279</v>
       </c>
       <c r="C10">
-        <v>17.5368047434898</v>
+        <v>22.1870075534379</v>
       </c>
       <c r="D10">
-        <v>3.914952384055584</v>
+        <v>6.467954734085189</v>
       </c>
       <c r="F10">
-        <v>41.0798811544719</v>
+        <v>10.82905338263478</v>
       </c>
       <c r="G10">
-        <v>2.032346203167933</v>
+        <v>9.969284138072018</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.033949509357985</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.50494508155019</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>6.807852909487294</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.79216461301553</v>
+        <v>31.65977552791203</v>
       </c>
       <c r="C11">
-        <v>18.20823509364859</v>
+        <v>22.89822440002041</v>
       </c>
       <c r="D11">
-        <v>3.847256959065923</v>
+        <v>6.668695953535505</v>
       </c>
       <c r="F11">
-        <v>42.44497386434983</v>
+        <v>11.03832111460389</v>
       </c>
       <c r="G11">
-        <v>2.023576288860177</v>
+        <v>10.44476514956452</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.92753108359944</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.36754324427939</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>6.717353843877586</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.1678589475455</v>
+        <v>32.04654050503009</v>
       </c>
       <c r="C12">
-        <v>18.45894679014044</v>
+        <v>23.16221356965056</v>
       </c>
       <c r="D12">
-        <v>3.822046279978101</v>
+        <v>6.743187172220938</v>
       </c>
       <c r="F12">
-        <v>42.96302782918531</v>
+        <v>11.1223123315461</v>
       </c>
       <c r="G12">
-        <v>2.020251481109996</v>
+        <v>10.63119289034882</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.888670967855272</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.68950303161729</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>6.688457647838003</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.08718617134727</v>
+        <v>31.96361822976331</v>
       </c>
       <c r="C13">
-        <v>18.40510509768574</v>
+        <v>23.1055960964458</v>
       </c>
       <c r="D13">
-        <v>3.827455704190087</v>
+        <v>6.727212020771354</v>
       </c>
       <c r="F13">
-        <v>42.8513997472604</v>
+        <v>11.10401233761631</v>
       </c>
       <c r="G13">
-        <v>2.020967808148396</v>
+        <v>10.59076910774685</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4.896973604358474</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.62036677050251</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>6.694431872850965</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.82318176090814</v>
+        <v>31.69176375851684</v>
       </c>
       <c r="C14">
-        <v>18.22893087260388</v>
+        <v>22.92004988075091</v>
       </c>
       <c r="D14">
-        <v>3.845173906051948</v>
+        <v>6.674854970178995</v>
       </c>
       <c r="F14">
-        <v>42.48756987277054</v>
+        <v>11.04513602883191</v>
       </c>
       <c r="G14">
-        <v>2.023302867360191</v>
+        <v>10.459978632261</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>4.924304279304919</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.39412324886498</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>6.714865210395153</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.66076336881458</v>
+        <v>31.52414741966472</v>
       </c>
       <c r="C15">
-        <v>18.12056499570419</v>
+        <v>22.80570266173089</v>
       </c>
       <c r="D15">
-        <v>3.856084376216428</v>
+        <v>6.642586074429395</v>
       </c>
       <c r="F15">
-        <v>42.26487047121319</v>
+        <v>11.00969059789214</v>
       </c>
       <c r="G15">
-        <v>2.02473247611728</v>
+        <v>10.38067649171539</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.941237215534296</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.25494120261811</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>6.7280998328325</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.71889571442646</v>
+        <v>30.54673564919327</v>
       </c>
       <c r="C16">
-        <v>17.49241570841147</v>
+        <v>22.13978214702726</v>
       </c>
       <c r="D16">
-        <v>3.919431702232242</v>
+        <v>6.454622568841829</v>
       </c>
       <c r="F16">
-        <v>40.99080799578316</v>
+        <v>10.81604114158627</v>
       </c>
       <c r="G16">
-        <v>2.032919130734647</v>
+        <v>9.939137789579314</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5.041096858532415</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.44789999040953</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>6.814484869754085</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.1309026389667</v>
+        <v>29.93202270566221</v>
       </c>
       <c r="C17">
-        <v>17.10049253153213</v>
+        <v>21.72177578786863</v>
       </c>
       <c r="D17">
-        <v>3.958971109258766</v>
+        <v>6.336600292059134</v>
       </c>
       <c r="F17">
-        <v>40.21087199235485</v>
+        <v>10.70568598469097</v>
       </c>
       <c r="G17">
-        <v>2.037940911418356</v>
+        <v>9.695932575688269</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.104753413506935</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.94414141909602</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>6.876378104107324</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.78885798798659</v>
+        <v>29.57288746338105</v>
       </c>
       <c r="C18">
-        <v>16.87257898105242</v>
+        <v>21.47786974073985</v>
       </c>
       <c r="D18">
-        <v>3.981941903087034</v>
+        <v>6.267721704992009</v>
       </c>
       <c r="F18">
-        <v>39.76280245191216</v>
+        <v>10.64530497133029</v>
       </c>
       <c r="G18">
-        <v>2.04083092593968</v>
+        <v>9.60104846271706</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.142201263663779</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.65111885580409</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>6.915048729008465</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.67237757871461</v>
+        <v>29.45033235385257</v>
       </c>
       <c r="C19">
-        <v>16.79497707858895</v>
+        <v>21.39469042673056</v>
       </c>
       <c r="D19">
-        <v>3.989756981296736</v>
+        <v>6.244229853719512</v>
       </c>
       <c r="F19">
-        <v>39.61117851017198</v>
+        <v>10.62539057501618</v>
       </c>
       <c r="G19">
-        <v>2.041809874796358</v>
+        <v>9.570063230759532</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.15501962729523</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.55133601597679</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>6.928650881022136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.19389137342853</v>
+        <v>29.99803587537237</v>
       </c>
       <c r="C20">
-        <v>17.14246949027438</v>
+        <v>21.76663359611132</v>
       </c>
       <c r="D20">
-        <v>3.954737971758314</v>
+        <v>6.349267018324428</v>
       </c>
       <c r="F20">
-        <v>40.29384120269488</v>
+        <v>10.71711310400674</v>
       </c>
       <c r="G20">
-        <v>2.037406205617685</v>
+        <v>9.714033635470873</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.097889723314102</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.99810426612472</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>6.869467165000145</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.90087317465991</v>
+        <v>31.77184263645153</v>
       </c>
       <c r="C21">
-        <v>18.28077167769512</v>
+        <v>22.97469410952544</v>
       </c>
       <c r="D21">
-        <v>3.839957496486033</v>
+        <v>6.690274915239238</v>
       </c>
       <c r="F21">
-        <v>42.59440212980374</v>
+        <v>11.06230065569526</v>
       </c>
       <c r="G21">
-        <v>2.022617157457498</v>
+        <v>10.49822713062641</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.916236263349851</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.46070121615537</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>6.708712553705813</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.98451069552526</v>
+        <v>32.88194948730657</v>
       </c>
       <c r="C22">
-        <v>19.00419121279639</v>
+        <v>23.73314697813593</v>
       </c>
       <c r="D22">
-        <v>3.767460549075941</v>
+        <v>6.904253968763927</v>
       </c>
       <c r="F22">
-        <v>44.1047314544853</v>
+        <v>11.31554465890254</v>
       </c>
       <c r="G22">
-        <v>2.012926057407628</v>
+        <v>11.05195000607538</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.805985076917674</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.38943091116377</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>6.635269470143862</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.40895956456868</v>
+        <v>32.29394326807869</v>
       </c>
       <c r="C23">
-        <v>18.61988064783775</v>
+        <v>23.33119272046239</v>
       </c>
       <c r="D23">
-        <v>3.805895412899259</v>
+        <v>6.790863306436125</v>
       </c>
       <c r="F23">
-        <v>43.29789033472271</v>
+        <v>11.17785765958312</v>
       </c>
       <c r="G23">
-        <v>2.018102831297377</v>
+        <v>10.75325357592178</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.863997816748407</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.89613162942744</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>6.67136523716111</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.16542664855829</v>
+        <v>29.96820916896865</v>
       </c>
       <c r="C24">
-        <v>17.12349979711415</v>
+        <v>21.74636455733574</v>
       </c>
       <c r="D24">
-        <v>3.956651033387686</v>
+        <v>6.343543586783805</v>
       </c>
       <c r="F24">
-        <v>40.25632982613391</v>
+        <v>10.71193736318887</v>
       </c>
       <c r="G24">
-        <v>2.037647936576051</v>
+        <v>9.70582972053975</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.100990158326486</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.97371829001519</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>6.872582031082626</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.59734180327186</v>
+        <v>27.24645305844643</v>
       </c>
       <c r="C25">
-        <v>15.41351135774503</v>
+        <v>19.90403232966642</v>
       </c>
       <c r="D25">
-        <v>4.127892299067844</v>
+        <v>5.823036943338695</v>
       </c>
       <c r="F25">
-        <v>36.99579643259401</v>
+        <v>10.32703429765728</v>
       </c>
       <c r="G25">
-        <v>2.058809272108331</v>
+        <v>9.135320243959727</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.388120383074006</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.77403666694672</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>7.204805429321823</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.05709549071114</v>
+        <v>14.93351310881776</v>
       </c>
       <c r="C2">
-        <v>18.43455480353887</v>
+        <v>11.64185014084704</v>
       </c>
       <c r="D2">
-        <v>5.407431435898049</v>
+        <v>3.918134423018945</v>
       </c>
       <c r="F2">
-        <v>10.1409742516714</v>
+        <v>15.88031944475604</v>
       </c>
       <c r="G2">
-        <v>8.932195895843588</v>
+        <v>14.15776795562885</v>
       </c>
       <c r="H2">
-        <v>5.62229858312653</v>
+        <v>10.7760138999018</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>7.527488028012767</v>
+        <v>14.42781711171567</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.45700067913499</v>
+        <v>14.06371179874951</v>
       </c>
       <c r="C3">
-        <v>17.36951960606437</v>
+        <v>11.08134734701999</v>
       </c>
       <c r="D3">
-        <v>5.105918182313776</v>
+        <v>3.778557731646563</v>
       </c>
       <c r="F3">
-        <v>10.07192910348617</v>
+        <v>16.00516197081918</v>
       </c>
       <c r="G3">
-        <v>8.921104890186228</v>
+        <v>14.3771886394656</v>
       </c>
       <c r="H3">
-        <v>5.793528865650396</v>
+        <v>10.85000455132577</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.785712253019224</v>
+        <v>14.56937377645897</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.41703471054155</v>
+        <v>13.49971208030673</v>
       </c>
       <c r="C4">
-        <v>16.68218053430303</v>
+        <v>10.72178393167878</v>
       </c>
       <c r="D4">
-        <v>4.911172226086602</v>
+        <v>3.689628288360711</v>
       </c>
       <c r="F4">
-        <v>10.05595898407429</v>
+        <v>16.089396163542</v>
       </c>
       <c r="G4">
-        <v>8.971201270101036</v>
+        <v>14.52335346772309</v>
       </c>
       <c r="H4">
-        <v>5.904399339021933</v>
+        <v>10.89799245352996</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.96116822572523</v>
+        <v>14.66161291441114</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.97878457997966</v>
+        <v>13.26245641121145</v>
       </c>
       <c r="C5">
-        <v>16.39382914437381</v>
+        <v>10.57153525370216</v>
       </c>
       <c r="D5">
-        <v>4.829429722655618</v>
+        <v>3.652614477717628</v>
       </c>
       <c r="F5">
-        <v>10.05579380410579</v>
+        <v>16.12561389044672</v>
       </c>
       <c r="G5">
-        <v>9.004881808480407</v>
+        <v>14.5857549813185</v>
       </c>
       <c r="H5">
-        <v>5.950965216653584</v>
+        <v>10.91819159840708</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.036577371114616</v>
+        <v>14.7005372909308</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.9051408854451</v>
+        <v>13.22261571549053</v>
       </c>
       <c r="C6">
-        <v>16.34545500471783</v>
+        <v>10.54636661731432</v>
       </c>
       <c r="D6">
-        <v>4.815713814905533</v>
+        <v>3.64642277562597</v>
       </c>
       <c r="F6">
-        <v>10.0561399039541</v>
+        <v>16.13174163935838</v>
       </c>
       <c r="G6">
-        <v>9.011242263825322</v>
+        <v>14.59628702441666</v>
       </c>
       <c r="H6">
-        <v>5.958779608937103</v>
+        <v>10.92158454684935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.04932591705116</v>
+        <v>14.70708129262694</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.41118282767298</v>
+        <v>13.49654225501884</v>
       </c>
       <c r="C7">
-        <v>16.67832493264204</v>
+        <v>10.71977248305399</v>
       </c>
       <c r="D7">
-        <v>4.910079408174013</v>
+        <v>3.689132189699385</v>
       </c>
       <c r="F7">
-        <v>10.05593150178168</v>
+        <v>16.08987696865612</v>
       </c>
       <c r="G7">
-        <v>8.971603277207979</v>
+        <v>14.52418359460567</v>
       </c>
       <c r="H7">
-        <v>5.905021802791869</v>
+        <v>10.89826225916296</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.962169812189749</v>
+        <v>14.66213245491905</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.51731356474073</v>
+        <v>14.63987572820987</v>
       </c>
       <c r="C8">
-        <v>18.07433873844066</v>
+        <v>11.45187115628012</v>
       </c>
       <c r="D8">
-        <v>5.30548419141602</v>
+        <v>3.870699756529795</v>
       </c>
       <c r="F8">
-        <v>10.11151473999458</v>
+        <v>15.92178311363235</v>
       </c>
       <c r="G8">
-        <v>8.915989655036896</v>
+        <v>14.23102640364129</v>
       </c>
       <c r="H8">
-        <v>5.680111822348707</v>
+        <v>10.80099547008109</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>7.612796423825567</v>
+        <v>14.4755197002829</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.19194943596037</v>
+        <v>16.64088930889133</v>
       </c>
       <c r="C9">
-        <v>20.54229594911979</v>
+        <v>12.75973928267894</v>
       </c>
       <c r="D9">
-        <v>6.003427767733434</v>
+        <v>4.199692340406275</v>
       </c>
       <c r="F9">
-        <v>10.44120684986364</v>
+        <v>15.65294512904592</v>
       </c>
       <c r="G9">
-        <v>9.293315943577857</v>
+        <v>13.74869725770876</v>
       </c>
       <c r="H9">
-        <v>5.287608384460944</v>
+        <v>10.63051852500798</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.07944051984144</v>
+        <v>14.15191305123695</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.61612542205279</v>
+        <v>17.96069348421627</v>
       </c>
       <c r="C10">
-        <v>22.1870075534379</v>
+        <v>13.63680996244116</v>
       </c>
       <c r="D10">
-        <v>6.467954734085189</v>
+        <v>4.423244813064995</v>
       </c>
       <c r="F10">
-        <v>10.82905338263478</v>
+        <v>15.49336899027122</v>
       </c>
       <c r="G10">
-        <v>9.969284138072018</v>
+        <v>13.45328739305439</v>
       </c>
       <c r="H10">
-        <v>5.033949509357985</v>
+        <v>10.51758212158674</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.807852909487294</v>
+        <v>13.94012524316598</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.65977552791203</v>
+        <v>18.52803864556936</v>
       </c>
       <c r="C11">
-        <v>22.89822440002041</v>
+        <v>14.01669900617182</v>
       </c>
       <c r="D11">
-        <v>6.668695953535505</v>
+        <v>4.52071995191422</v>
       </c>
       <c r="F11">
-        <v>11.03832111460389</v>
+        <v>15.42919723791028</v>
       </c>
       <c r="G11">
-        <v>10.44476514956452</v>
+        <v>13.33227278682441</v>
       </c>
       <c r="H11">
-        <v>4.92753108359944</v>
+        <v>10.46887032655298</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.717353843877586</v>
+        <v>13.84945330643957</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.04654050503009</v>
+        <v>18.73810404747452</v>
       </c>
       <c r="C12">
-        <v>23.16221356965056</v>
+        <v>14.15774891536712</v>
       </c>
       <c r="D12">
-        <v>6.743187172220938</v>
+        <v>4.557004920424767</v>
       </c>
       <c r="F12">
-        <v>11.1223123315461</v>
+        <v>15.40612293075563</v>
       </c>
       <c r="G12">
-        <v>10.63119289034882</v>
+        <v>13.28841938616425</v>
       </c>
       <c r="H12">
-        <v>4.888670967855272</v>
+        <v>10.45080702052996</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.688457647838003</v>
+        <v>13.81593742688793</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.96361822976331</v>
+        <v>18.69307541936708</v>
       </c>
       <c r="C13">
-        <v>23.1055960964458</v>
+        <v>14.12749692055636</v>
       </c>
       <c r="D13">
-        <v>6.727212020771354</v>
+        <v>4.549218466740735</v>
       </c>
       <c r="F13">
-        <v>11.10401233761631</v>
+        <v>15.41103762140832</v>
       </c>
       <c r="G13">
-        <v>10.59076910774685</v>
+        <v>13.29777548073127</v>
       </c>
       <c r="H13">
-        <v>4.896973604358474</v>
+        <v>10.45468025483112</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.694431872850965</v>
+        <v>13.82311915098202</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.69176375851684</v>
+        <v>18.54541668066731</v>
       </c>
       <c r="C14">
-        <v>22.92004988075091</v>
+        <v>14.02835980393505</v>
       </c>
       <c r="D14">
-        <v>6.674854970178995</v>
+        <v>4.523717803646143</v>
       </c>
       <c r="F14">
-        <v>11.04513602883191</v>
+        <v>15.42727424019457</v>
       </c>
       <c r="G14">
-        <v>10.459978632261</v>
+        <v>13.32862512576782</v>
       </c>
       <c r="H14">
-        <v>4.924304279304919</v>
+        <v>10.46737657683493</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.714865210395153</v>
+        <v>13.84667948429079</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.52414741966472</v>
+        <v>18.45434888655165</v>
       </c>
       <c r="C15">
-        <v>22.80570266173089</v>
+        <v>13.96726846741076</v>
       </c>
       <c r="D15">
-        <v>6.642586074429395</v>
+        <v>4.508015744729603</v>
       </c>
       <c r="F15">
-        <v>11.00969059789214</v>
+        <v>15.43737976840836</v>
       </c>
       <c r="G15">
-        <v>10.38067649171539</v>
+        <v>13.34777976170918</v>
       </c>
       <c r="H15">
-        <v>4.941237215534296</v>
+        <v>10.47520328595374</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.7280998328325</v>
+        <v>13.86121773214982</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.54673564919327</v>
+        <v>17.92294897558831</v>
       </c>
       <c r="C16">
-        <v>22.13978214702726</v>
+        <v>13.61159369058145</v>
       </c>
       <c r="D16">
-        <v>6.454622568841829</v>
+        <v>4.416787900831846</v>
       </c>
       <c r="F16">
-        <v>10.81604114158627</v>
+        <v>15.49773351740612</v>
       </c>
       <c r="G16">
-        <v>9.939137789579314</v>
+        <v>13.46146922443758</v>
       </c>
       <c r="H16">
-        <v>5.041096858532415</v>
+        <v>10.5208191292885</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.814484869754085</v>
+        <v>13.9461653329837</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.93202270566221</v>
+        <v>17.58846951518376</v>
       </c>
       <c r="C17">
-        <v>21.72177578786863</v>
+        <v>13.38846168261691</v>
       </c>
       <c r="D17">
-        <v>6.336600292059134</v>
+        <v>4.359726676577278</v>
       </c>
       <c r="F17">
-        <v>10.70568598469097</v>
+        <v>15.53692619118348</v>
       </c>
       <c r="G17">
-        <v>9.695932575688269</v>
+        <v>13.53467312744486</v>
       </c>
       <c r="H17">
-        <v>5.104753413506935</v>
+        <v>10.54948499671939</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.876378104107324</v>
+        <v>13.99973333430572</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.57288746338105</v>
+        <v>17.39297672391044</v>
       </c>
       <c r="C18">
-        <v>21.47786974073985</v>
+        <v>13.25832754926631</v>
       </c>
       <c r="D18">
-        <v>6.267721704992009</v>
+        <v>4.326510369335662</v>
       </c>
       <c r="F18">
-        <v>10.64530497133029</v>
+        <v>15.56026043026888</v>
       </c>
       <c r="G18">
-        <v>9.60104846271706</v>
+        <v>13.57803335296843</v>
       </c>
       <c r="H18">
-        <v>5.142201263663779</v>
+        <v>10.56622356082576</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.915048729008465</v>
+        <v>14.03107779135282</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.45033235385257</v>
+        <v>17.32625313749134</v>
       </c>
       <c r="C19">
-        <v>21.39469042673056</v>
+        <v>13.21396017859634</v>
       </c>
       <c r="D19">
-        <v>6.244229853719512</v>
+        <v>4.315196502799649</v>
       </c>
       <c r="F19">
-        <v>10.62539057501618</v>
+        <v>15.56829649838602</v>
       </c>
       <c r="G19">
-        <v>9.570063230759532</v>
+        <v>13.59292847885183</v>
       </c>
       <c r="H19">
-        <v>5.15501962729523</v>
+        <v>10.57193401912633</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.928650881022136</v>
+        <v>14.04178200535006</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.99803587537237</v>
+        <v>17.62439740603285</v>
       </c>
       <c r="C20">
-        <v>21.76663359611132</v>
+        <v>13.41240066108547</v>
       </c>
       <c r="D20">
-        <v>6.349267018324428</v>
+        <v>4.365842099489477</v>
       </c>
       <c r="F20">
-        <v>10.71711310400674</v>
+        <v>15.53267201958033</v>
       </c>
       <c r="G20">
-        <v>9.714033635470873</v>
+        <v>13.52675017388486</v>
       </c>
       <c r="H20">
-        <v>5.097889723314102</v>
+        <v>10.54640751983816</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.869467165000145</v>
+        <v>13.99397567900035</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.77184263645153</v>
+        <v>18.58891740364689</v>
       </c>
       <c r="C21">
-        <v>22.97469410952544</v>
+        <v>14.05755535021541</v>
       </c>
       <c r="D21">
-        <v>6.690274915239238</v>
+        <v>4.531225121760395</v>
       </c>
       <c r="F21">
-        <v>11.06230065569526</v>
+        <v>15.42247175367673</v>
       </c>
       <c r="G21">
-        <v>10.49822713062641</v>
+        <v>13.31950990937622</v>
       </c>
       <c r="H21">
-        <v>4.916236263349851</v>
+        <v>10.46363697191157</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.708712553705813</v>
+        <v>13.83973696541236</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.88194948730657</v>
+        <v>19.19144350231936</v>
       </c>
       <c r="C22">
-        <v>23.73314697813593</v>
+        <v>14.462826463798</v>
       </c>
       <c r="D22">
-        <v>6.904253968763927</v>
+        <v>4.635651910585806</v>
       </c>
       <c r="F22">
-        <v>11.31554465890254</v>
+        <v>15.35760332284283</v>
       </c>
       <c r="G22">
-        <v>11.05195000607538</v>
+        <v>13.19558585901097</v>
       </c>
       <c r="H22">
-        <v>4.805985076917674</v>
+        <v>10.41177277978981</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.635269470143862</v>
+        <v>13.74371247017933</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.29394326807869</v>
+        <v>18.8724177421328</v>
       </c>
       <c r="C23">
-        <v>23.33119272046239</v>
+        <v>14.24804093782735</v>
       </c>
       <c r="D23">
-        <v>6.790863306436125</v>
+        <v>4.580258206871737</v>
       </c>
       <c r="F23">
-        <v>11.17785765958312</v>
+        <v>15.39156525766298</v>
       </c>
       <c r="G23">
-        <v>10.75325357592178</v>
+        <v>13.26065567202994</v>
       </c>
       <c r="H23">
-        <v>4.863997816748407</v>
+        <v>10.43924958562871</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.67136523716111</v>
+        <v>13.7945238193221</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.96820916896865</v>
+        <v>17.60816435976486</v>
       </c>
       <c r="C24">
-        <v>21.74636455733574</v>
+        <v>13.40158361462677</v>
       </c>
       <c r="D24">
-        <v>6.343543586783805</v>
+        <v>4.363078595584036</v>
       </c>
       <c r="F24">
-        <v>10.71193736318887</v>
+        <v>15.53459283403717</v>
       </c>
       <c r="G24">
-        <v>9.70582972053975</v>
+        <v>13.53032817553294</v>
       </c>
       <c r="H24">
-        <v>5.100990158326486</v>
+        <v>10.5477980429121</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.872582031082626</v>
+        <v>13.99657700983326</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.24645305844643</v>
+        <v>16.12577964503738</v>
       </c>
       <c r="C25">
-        <v>19.90403232966642</v>
+        <v>12.42028705777611</v>
       </c>
       <c r="D25">
-        <v>5.823036943338695</v>
+        <v>4.113773622268636</v>
       </c>
       <c r="F25">
-        <v>10.32703429765728</v>
+        <v>15.71907350869982</v>
       </c>
       <c r="G25">
-        <v>9.135320243959727</v>
+        <v>13.8690155013069</v>
       </c>
       <c r="H25">
-        <v>5.388120383074006</v>
+        <v>10.67447204459421</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.204805429321823</v>
+        <v>14.23490930322805</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.93351310881776</v>
+        <v>25.05709549071115</v>
       </c>
       <c r="C2">
-        <v>11.64185014084704</v>
+        <v>18.43455480353891</v>
       </c>
       <c r="D2">
-        <v>3.918134423018945</v>
+        <v>5.407431435898092</v>
       </c>
       <c r="F2">
-        <v>15.88031944475604</v>
+        <v>10.14097425167135</v>
       </c>
       <c r="G2">
-        <v>14.15776795562885</v>
+        <v>8.932195895843559</v>
       </c>
       <c r="H2">
-        <v>10.7760138999018</v>
+        <v>5.622298583126524</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.42781711171567</v>
+        <v>7.527488028012757</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.06371179874951</v>
+        <v>23.45700067913499</v>
       </c>
       <c r="C3">
-        <v>11.08134734701999</v>
+        <v>17.36951960606435</v>
       </c>
       <c r="D3">
-        <v>3.778557731646563</v>
+        <v>5.105918182313776</v>
       </c>
       <c r="F3">
-        <v>16.00516197081918</v>
+        <v>10.07192910348615</v>
       </c>
       <c r="G3">
-        <v>14.3771886394656</v>
+        <v>8.921104890186223</v>
       </c>
       <c r="H3">
-        <v>10.85000455132577</v>
+        <v>5.7935288656504</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.56937377645897</v>
+        <v>7.785712253019184</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.49971208030673</v>
+        <v>22.41703471054156</v>
       </c>
       <c r="C4">
-        <v>10.72178393167878</v>
+        <v>16.68218053430292</v>
       </c>
       <c r="D4">
-        <v>3.689628288360711</v>
+        <v>4.911172226086586</v>
       </c>
       <c r="F4">
-        <v>16.089396163542</v>
+        <v>10.05595898407439</v>
       </c>
       <c r="G4">
-        <v>14.52335346772309</v>
+        <v>8.971201270101142</v>
       </c>
       <c r="H4">
-        <v>10.89799245352996</v>
+        <v>5.904399339021995</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.66161291441114</v>
+        <v>7.961168225725325</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.26245641121145</v>
+        <v>21.97878457997965</v>
       </c>
       <c r="C5">
-        <v>10.57153525370216</v>
+        <v>16.39382914437376</v>
       </c>
       <c r="D5">
-        <v>3.652614477717628</v>
+        <v>4.829429722655627</v>
       </c>
       <c r="F5">
-        <v>16.12561389044672</v>
+        <v>10.0557938041059</v>
       </c>
       <c r="G5">
-        <v>14.5857549813185</v>
+        <v>9.00488180848053</v>
       </c>
       <c r="H5">
-        <v>10.91819159840708</v>
+        <v>5.950965216653653</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.7005372909308</v>
+        <v>8.036577371114745</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.22261571549053</v>
+        <v>21.90514088544512</v>
       </c>
       <c r="C6">
-        <v>10.54636661731432</v>
+        <v>16.34545500471776</v>
       </c>
       <c r="D6">
-        <v>3.64642277562597</v>
+        <v>4.815713814905611</v>
       </c>
       <c r="F6">
-        <v>16.13174163935838</v>
+        <v>10.05613990395398</v>
       </c>
       <c r="G6">
-        <v>14.59628702441666</v>
+        <v>9.011242263825139</v>
       </c>
       <c r="H6">
-        <v>10.92158454684935</v>
+        <v>5.958779608937044</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.70708129262694</v>
+        <v>8.049325917051041</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.49654225501884</v>
+        <v>22.41118282767302</v>
       </c>
       <c r="C7">
-        <v>10.71977248305399</v>
+        <v>16.67832493264199</v>
       </c>
       <c r="D7">
-        <v>3.689132189699385</v>
+        <v>4.910079408173966</v>
       </c>
       <c r="F7">
-        <v>16.08987696865612</v>
+        <v>10.05593150178151</v>
       </c>
       <c r="G7">
-        <v>14.52418359460567</v>
+        <v>8.971603277207704</v>
       </c>
       <c r="H7">
-        <v>10.89826225916296</v>
+        <v>5.905021802791864</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.66213245491905</v>
+        <v>7.962169812189561</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.63987572820987</v>
+        <v>24.51731356474074</v>
       </c>
       <c r="C8">
-        <v>11.45187115628012</v>
+        <v>18.07433873844058</v>
       </c>
       <c r="D8">
-        <v>3.870699756529795</v>
+        <v>5.305484191416142</v>
       </c>
       <c r="F8">
-        <v>15.92178311363235</v>
+        <v>10.11151473999462</v>
       </c>
       <c r="G8">
-        <v>14.23102640364129</v>
+        <v>8.915989655037071</v>
       </c>
       <c r="H8">
-        <v>10.80099547008109</v>
+        <v>5.680111822348776</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.4755197002829</v>
+        <v>7.612796423825692</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.64088930889133</v>
+        <v>28.19194943596038</v>
       </c>
       <c r="C9">
-        <v>12.75973928267894</v>
+        <v>20.5422959491199</v>
       </c>
       <c r="D9">
-        <v>4.199692340406275</v>
+        <v>6.003427767733477</v>
       </c>
       <c r="F9">
-        <v>15.65294512904592</v>
+        <v>10.44120684986361</v>
       </c>
       <c r="G9">
-        <v>13.74869725770876</v>
+        <v>9.293315943577831</v>
       </c>
       <c r="H9">
-        <v>10.63051852500798</v>
+        <v>5.287608384460999</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.15191305123695</v>
+        <v>7.079440519841389</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.96069348421627</v>
+        <v>30.61612542205275</v>
       </c>
       <c r="C10">
-        <v>13.63680996244116</v>
+        <v>22.18700755343796</v>
       </c>
       <c r="D10">
-        <v>4.423244813064995</v>
+        <v>6.467954734085149</v>
       </c>
       <c r="F10">
-        <v>15.49336899027122</v>
+        <v>10.82905338263476</v>
       </c>
       <c r="G10">
-        <v>13.45328739305439</v>
+        <v>9.969284138072007</v>
       </c>
       <c r="H10">
-        <v>10.51758212158674</v>
+        <v>5.033949509358041</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.94012524316598</v>
+        <v>6.807852909487283</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.52803864556936</v>
+        <v>31.65977552791209</v>
       </c>
       <c r="C11">
-        <v>14.01669900617182</v>
+        <v>22.89822440002037</v>
       </c>
       <c r="D11">
-        <v>4.52071995191422</v>
+        <v>6.668695953535559</v>
       </c>
       <c r="F11">
-        <v>15.42919723791028</v>
+        <v>11.03832111460386</v>
       </c>
       <c r="G11">
-        <v>13.33227278682441</v>
+        <v>10.44476514956467</v>
       </c>
       <c r="H11">
-        <v>10.46887032655298</v>
+        <v>4.927531083599445</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.84945330643957</v>
+        <v>6.717353843877535</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.73810404747452</v>
+        <v>32.04654050503007</v>
       </c>
       <c r="C12">
-        <v>14.15774891536712</v>
+        <v>23.16221356965061</v>
       </c>
       <c r="D12">
-        <v>4.557004920424767</v>
+        <v>6.743187172220852</v>
       </c>
       <c r="F12">
-        <v>15.40612293075563</v>
+        <v>11.12231233154604</v>
       </c>
       <c r="G12">
-        <v>13.28841938616425</v>
+        <v>10.63119289034884</v>
       </c>
       <c r="H12">
-        <v>10.45080702052996</v>
+        <v>4.888670967855262</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.81593742688793</v>
+        <v>6.688457647837952</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.69307541936708</v>
+        <v>31.96361822976333</v>
       </c>
       <c r="C13">
-        <v>14.12749692055636</v>
+        <v>23.1055960964458</v>
       </c>
       <c r="D13">
-        <v>4.549218466740735</v>
+        <v>6.727212020771424</v>
       </c>
       <c r="F13">
-        <v>15.41103762140832</v>
+        <v>11.10401233761625</v>
       </c>
       <c r="G13">
-        <v>13.29777548073127</v>
+        <v>10.59076910774691</v>
       </c>
       <c r="H13">
-        <v>10.45468025483112</v>
+        <v>4.896973604358467</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.82311915098202</v>
+        <v>6.694431872850878</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.54541668066731</v>
+        <v>31.69176375851682</v>
       </c>
       <c r="C14">
-        <v>14.02835980393505</v>
+        <v>22.92004988075092</v>
       </c>
       <c r="D14">
-        <v>4.523717803646143</v>
+        <v>6.674854970178995</v>
       </c>
       <c r="F14">
-        <v>15.42727424019457</v>
+        <v>11.04513602883186</v>
       </c>
       <c r="G14">
-        <v>13.32862512576782</v>
+        <v>10.45997863226104</v>
       </c>
       <c r="H14">
-        <v>10.46737657683493</v>
+        <v>4.924304279304915</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.84667948429079</v>
+        <v>6.714865210395097</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.45434888655165</v>
+        <v>31.52414741966474</v>
       </c>
       <c r="C15">
-        <v>13.96726846741076</v>
+        <v>22.80570266173087</v>
       </c>
       <c r="D15">
-        <v>4.508015744729603</v>
+        <v>6.642586074429459</v>
       </c>
       <c r="F15">
-        <v>15.43737976840836</v>
+        <v>11.00969059789215</v>
       </c>
       <c r="G15">
-        <v>13.34777976170918</v>
+        <v>10.38067649171543</v>
       </c>
       <c r="H15">
-        <v>10.47520328595374</v>
+        <v>4.941237215534243</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.86121773214982</v>
+        <v>6.728099832832476</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.92294897558831</v>
+        <v>30.54673564919334</v>
       </c>
       <c r="C16">
-        <v>13.61159369058145</v>
+        <v>22.13978214702711</v>
       </c>
       <c r="D16">
-        <v>4.416787900831846</v>
+        <v>6.454622568841757</v>
       </c>
       <c r="F16">
-        <v>15.49773351740612</v>
+        <v>10.81604114158633</v>
       </c>
       <c r="G16">
-        <v>13.46146922443758</v>
+        <v>9.939137789579545</v>
       </c>
       <c r="H16">
-        <v>10.5208191292885</v>
+        <v>5.041096858532377</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.9461653329837</v>
+        <v>6.81448486975404</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.58846951518376</v>
+        <v>29.93202270566224</v>
       </c>
       <c r="C17">
-        <v>13.38846168261691</v>
+        <v>21.72177578786862</v>
       </c>
       <c r="D17">
-        <v>4.359726676577278</v>
+        <v>6.336600292059126</v>
       </c>
       <c r="F17">
-        <v>15.53692619118348</v>
+        <v>10.70568598469101</v>
       </c>
       <c r="G17">
-        <v>13.53467312744486</v>
+        <v>9.695932575688255</v>
       </c>
       <c r="H17">
-        <v>10.54948499671939</v>
+        <v>5.104753413506978</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.99973333430572</v>
+        <v>6.876378104107364</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.39297672391044</v>
+        <v>29.57288746338109</v>
       </c>
       <c r="C18">
-        <v>13.25832754926631</v>
+        <v>21.47786974073988</v>
       </c>
       <c r="D18">
-        <v>4.326510369335662</v>
+        <v>6.267721704992092</v>
       </c>
       <c r="F18">
-        <v>15.56026043026888</v>
+        <v>10.64530497133024</v>
       </c>
       <c r="G18">
-        <v>13.57803335296843</v>
+        <v>9.601048462717046</v>
       </c>
       <c r="H18">
-        <v>10.56622356082576</v>
+        <v>5.142201263663783</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.03107779135282</v>
+        <v>6.915048729008465</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.32625313749134</v>
+        <v>29.45033235385256</v>
       </c>
       <c r="C19">
-        <v>13.21396017859634</v>
+        <v>21.39469042673068</v>
       </c>
       <c r="D19">
-        <v>4.315196502799649</v>
+        <v>6.244229853719545</v>
       </c>
       <c r="F19">
-        <v>15.56829649838602</v>
+        <v>10.62539057501618</v>
       </c>
       <c r="G19">
-        <v>13.59292847885183</v>
+        <v>9.570063230759567</v>
       </c>
       <c r="H19">
-        <v>10.57193401912633</v>
+        <v>5.155019627295234</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.04178200535006</v>
+        <v>6.928650881022152</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.62439740603285</v>
+        <v>29.99803587537238</v>
       </c>
       <c r="C20">
-        <v>13.41240066108547</v>
+        <v>21.76663359611128</v>
       </c>
       <c r="D20">
-        <v>4.365842099489477</v>
+        <v>6.349267018324413</v>
       </c>
       <c r="F20">
-        <v>15.53267201958033</v>
+        <v>10.71711310400672</v>
       </c>
       <c r="G20">
-        <v>13.52675017388486</v>
+        <v>9.714033635470905</v>
       </c>
       <c r="H20">
-        <v>10.54640751983816</v>
+        <v>5.097889723314157</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.99397567900035</v>
+        <v>6.869467165000165</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.58891740364689</v>
+        <v>31.77184263645153</v>
       </c>
       <c r="C21">
-        <v>14.05755535021541</v>
+        <v>22.97469410952548</v>
       </c>
       <c r="D21">
-        <v>4.531225121760395</v>
+        <v>6.690274915239238</v>
       </c>
       <c r="F21">
-        <v>15.42247175367673</v>
+        <v>11.06230065569526</v>
       </c>
       <c r="G21">
-        <v>13.31950990937622</v>
+        <v>10.49822713062639</v>
       </c>
       <c r="H21">
-        <v>10.46363697191157</v>
+        <v>4.916236263349851</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.83973696541236</v>
+        <v>6.70871255370581</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.19144350231936</v>
+        <v>32.88194948730663</v>
       </c>
       <c r="C22">
-        <v>14.462826463798</v>
+        <v>23.73314697813592</v>
       </c>
       <c r="D22">
-        <v>4.635651910585806</v>
+        <v>6.904253968763975</v>
       </c>
       <c r="F22">
-        <v>15.35760332284283</v>
+        <v>11.31554465890243</v>
       </c>
       <c r="G22">
-        <v>13.19558585901097</v>
+        <v>11.05195000607553</v>
       </c>
       <c r="H22">
-        <v>10.41177277978981</v>
+        <v>4.805985076917609</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.74371247017933</v>
+        <v>6.63526947014372</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.8724177421328</v>
+        <v>32.29394326807872</v>
       </c>
       <c r="C23">
-        <v>14.24804093782735</v>
+        <v>23.33119272046239</v>
       </c>
       <c r="D23">
-        <v>4.580258206871737</v>
+        <v>6.790863306436131</v>
       </c>
       <c r="F23">
-        <v>15.39156525766298</v>
+        <v>11.17785765958311</v>
       </c>
       <c r="G23">
-        <v>13.26065567202994</v>
+        <v>10.75325357592179</v>
       </c>
       <c r="H23">
-        <v>10.43924958562871</v>
+        <v>4.86399781674835</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.7945238193221</v>
+        <v>6.671365237161073</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.60816435976486</v>
+        <v>29.96820916896861</v>
       </c>
       <c r="C24">
-        <v>13.40158361462677</v>
+        <v>21.74636455733571</v>
       </c>
       <c r="D24">
-        <v>4.363078595584036</v>
+        <v>6.343543586783822</v>
       </c>
       <c r="F24">
-        <v>15.53459283403717</v>
+        <v>10.71193736318891</v>
       </c>
       <c r="G24">
-        <v>13.53032817553294</v>
+        <v>9.70582972053978</v>
       </c>
       <c r="H24">
-        <v>10.5477980429121</v>
+        <v>5.100990158326544</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.99657700983326</v>
+        <v>6.872582031082701</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.12577964503738</v>
+        <v>27.24645305844641</v>
       </c>
       <c r="C25">
-        <v>12.42028705777611</v>
+        <v>19.90403232966646</v>
       </c>
       <c r="D25">
-        <v>4.113773622268636</v>
+        <v>5.823036943338732</v>
       </c>
       <c r="F25">
-        <v>15.71907350869982</v>
+        <v>10.32703429765728</v>
       </c>
       <c r="G25">
-        <v>13.8690155013069</v>
+        <v>9.135320243959798</v>
       </c>
       <c r="H25">
-        <v>10.67447204459421</v>
+        <v>5.388120383074006</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.23490930322805</v>
+        <v>7.204805429321882</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,923 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.05709549071115</v>
+        <v>13.50323642324853</v>
       </c>
       <c r="C2">
-        <v>18.43455480353891</v>
+        <v>8.866628936232781</v>
       </c>
       <c r="D2">
-        <v>5.407431435898092</v>
+        <v>5.608153771100188</v>
       </c>
       <c r="F2">
-        <v>10.14097425167135</v>
+        <v>17.71423413528127</v>
       </c>
       <c r="G2">
-        <v>8.932195895843559</v>
-      </c>
-      <c r="H2">
-        <v>5.622298583126524</v>
+        <v>21.99392116288325</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.796812441404638</v>
+      </c>
+      <c r="J2">
+        <v>9.157753128024011</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>7.527488028012757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.86083083279299</v>
+      </c>
+      <c r="M2">
+        <v>12.41695724538597</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.45700067913499</v>
+        <v>12.64902332726982</v>
       </c>
       <c r="C3">
-        <v>17.36951960606435</v>
+        <v>8.344782462289201</v>
       </c>
       <c r="D3">
-        <v>5.105918182313776</v>
+        <v>5.42454912863977</v>
       </c>
       <c r="F3">
-        <v>10.07192910348615</v>
+        <v>17.65114247593709</v>
       </c>
       <c r="G3">
-        <v>8.921104890186223</v>
-      </c>
-      <c r="H3">
-        <v>5.7935288656504</v>
+        <v>22.06840004253211</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.973163553610282</v>
+      </c>
+      <c r="J3">
+        <v>9.275070337731114</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>7.785712253019184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.10727851449834</v>
+      </c>
+      <c r="M3">
+        <v>11.70471961297752</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.41703471054156</v>
+        <v>12.0930763820406</v>
       </c>
       <c r="C4">
-        <v>16.68218053430292</v>
+        <v>8.011505512183346</v>
       </c>
       <c r="D4">
-        <v>4.911172226086586</v>
+        <v>5.309072917692859</v>
       </c>
       <c r="F4">
-        <v>10.05595898407439</v>
+        <v>17.62535735433528</v>
       </c>
       <c r="G4">
-        <v>8.971201270101142</v>
-      </c>
-      <c r="H4">
-        <v>5.904399339021995</v>
+        <v>22.13456230626952</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.085934192502354</v>
+      </c>
+      <c r="J4">
+        <v>9.350956721701847</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>7.961168225725325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.26349902267666</v>
+      </c>
+      <c r="M4">
+        <v>11.24494832121433</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.97878457997965</v>
+        <v>11.85635976722733</v>
       </c>
       <c r="C5">
-        <v>16.39382914437376</v>
+        <v>7.881200770039467</v>
       </c>
       <c r="D5">
-        <v>4.829429722655627</v>
+        <v>5.264058446536798</v>
       </c>
       <c r="F5">
-        <v>10.0557938041059</v>
+        <v>17.60480856026173</v>
       </c>
       <c r="G5">
-        <v>9.00488180848053</v>
-      </c>
-      <c r="H5">
-        <v>5.950965216653653</v>
+        <v>22.14402111337496</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.13591109013131</v>
+      </c>
+      <c r="J5">
+        <v>9.379178300932679</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>8.036577371114745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.32126429210692</v>
+      </c>
+      <c r="M5">
+        <v>11.05363031023097</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.90514088544512</v>
+        <v>11.81381724338308</v>
       </c>
       <c r="C6">
-        <v>16.34545500471776</v>
+        <v>7.87004514639781</v>
       </c>
       <c r="D6">
-        <v>4.815713814905611</v>
+        <v>5.259851955821141</v>
       </c>
       <c r="F6">
-        <v>10.05613990395398</v>
+        <v>17.5854765075607</v>
       </c>
       <c r="G6">
-        <v>9.011242263825139</v>
-      </c>
-      <c r="H6">
-        <v>5.958779608937044</v>
+        <v>22.11858523262499</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.147981042213548</v>
+      </c>
+      <c r="J6">
+        <v>9.379473048191519</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>8.049325917051041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.32227053438209</v>
+      </c>
+      <c r="M6">
+        <v>11.0235219612101</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.41118282767302</v>
+        <v>12.08255609099946</v>
       </c>
       <c r="C7">
-        <v>16.67832493264199</v>
+        <v>8.038306555228083</v>
       </c>
       <c r="D7">
-        <v>4.910079408173966</v>
+        <v>5.317443394845229</v>
       </c>
       <c r="F7">
-        <v>10.05593150178151</v>
+        <v>17.58116546650489</v>
       </c>
       <c r="G7">
-        <v>8.971603277207704</v>
-      </c>
-      <c r="H7">
-        <v>5.905021802791864</v>
+        <v>22.06009318948099</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.096421650966847</v>
+      </c>
+      <c r="J7">
+        <v>9.339184552788032</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>7.962169812189561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.24058399455411</v>
+      </c>
+      <c r="M7">
+        <v>11.2477426372786</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.51731356474074</v>
+        <v>13.20622314420651</v>
       </c>
       <c r="C8">
-        <v>18.07433873844058</v>
+        <v>8.724593886420818</v>
       </c>
       <c r="D8">
-        <v>5.305484191416142</v>
+        <v>5.557053832325141</v>
       </c>
       <c r="F8">
-        <v>10.11151473999462</v>
+        <v>17.63218986991244</v>
       </c>
       <c r="G8">
-        <v>8.915989655037071</v>
-      </c>
-      <c r="H8">
-        <v>5.680111822348776</v>
+        <v>21.9166676186962</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.869365100201148</v>
+      </c>
+      <c r="J8">
+        <v>9.181312825305385</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>7.612796423825692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.91332317281568</v>
+      </c>
+      <c r="M8">
+        <v>12.1827282952308</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.19194943596038</v>
+        <v>15.17224448400502</v>
       </c>
       <c r="C9">
-        <v>20.5422959491199</v>
+        <v>9.921709812887718</v>
       </c>
       <c r="D9">
-        <v>6.003427767733477</v>
+        <v>5.988217161992205</v>
       </c>
       <c r="F9">
-        <v>10.44120684986361</v>
+        <v>17.91793973487088</v>
       </c>
       <c r="G9">
-        <v>9.293315943577831</v>
-      </c>
-      <c r="H9">
-        <v>5.287608384460999</v>
+        <v>21.94460423507241</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.513765922367067</v>
+      </c>
+      <c r="J9">
+        <v>8.925520387321264</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>7.079440519841389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.35431683215799</v>
+      </c>
+      <c r="M9">
+        <v>13.82756764467296</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.61612542205275</v>
+        <v>16.46284647437357</v>
       </c>
       <c r="C10">
-        <v>22.18700755343796</v>
+        <v>10.75028837915142</v>
       </c>
       <c r="D10">
-        <v>6.467954734085149</v>
+        <v>6.293492766822793</v>
       </c>
       <c r="F10">
-        <v>10.82905338263476</v>
+        <v>18.17951420514678</v>
       </c>
       <c r="G10">
-        <v>9.969284138072007</v>
-      </c>
-      <c r="H10">
-        <v>5.033949509358041</v>
+        <v>22.05446476287497</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.802313768137122</v>
+      </c>
+      <c r="J10">
+        <v>8.753411070614487</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>6.807852909487283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.95841995098398</v>
+      </c>
+      <c r="M10">
+        <v>14.92725904150142</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.65977552791209</v>
+        <v>17.00886077055877</v>
       </c>
       <c r="C11">
-        <v>22.89822440002037</v>
+        <v>11.14830617582245</v>
       </c>
       <c r="D11">
-        <v>6.668695953535559</v>
+        <v>6.441750524175497</v>
       </c>
       <c r="F11">
-        <v>11.03832111460386</v>
+        <v>18.24875041712583</v>
       </c>
       <c r="G11">
-        <v>10.44476514956467</v>
-      </c>
-      <c r="H11">
-        <v>4.927531083599445</v>
+        <v>22.01831831002237</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.936362765345037</v>
+      </c>
+      <c r="J11">
+        <v>8.660430338091384</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>6.717353843877535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.74492829189827</v>
+      </c>
+      <c r="M11">
+        <v>15.41004375803501</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.04654050503007</v>
+        <v>17.21582155037768</v>
       </c>
       <c r="C12">
-        <v>23.16221356965061</v>
+        <v>11.27796619369448</v>
       </c>
       <c r="D12">
-        <v>6.743187172220852</v>
+        <v>6.490284626100578</v>
       </c>
       <c r="F12">
-        <v>11.12231233154604</v>
+        <v>18.31350743854558</v>
       </c>
       <c r="G12">
-        <v>10.63119289034884</v>
-      </c>
-      <c r="H12">
-        <v>4.888670967855262</v>
+        <v>22.07233634440825</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.984048093601202</v>
+      </c>
+      <c r="J12">
+        <v>8.636654046301279</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>6.688457647837952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.68608268473879</v>
+      </c>
+      <c r="M12">
+        <v>15.58571261138398</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.96361822976333</v>
+        <v>17.17239601086094</v>
       </c>
       <c r="C13">
-        <v>23.1055960964458</v>
+        <v>11.24638460094866</v>
       </c>
       <c r="D13">
-        <v>6.727212020771424</v>
+        <v>6.478454332511438</v>
       </c>
       <c r="F13">
-        <v>11.10401233761625</v>
+        <v>18.30660690939466</v>
       </c>
       <c r="G13">
-        <v>10.59076910774691</v>
-      </c>
-      <c r="H13">
-        <v>4.896973604358467</v>
+        <v>22.07303611696653</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.973186406326615</v>
+      </c>
+      <c r="J13">
+        <v>8.643874767947549</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>6.694431872850878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.7029533952818</v>
+      </c>
+      <c r="M13">
+        <v>15.54731185708163</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.69176375851682</v>
+        <v>17.02638330983873</v>
       </c>
       <c r="C14">
-        <v>22.92004988075092</v>
+        <v>11.15740977276982</v>
       </c>
       <c r="D14">
-        <v>6.674854970178995</v>
+        <v>6.445156423030229</v>
       </c>
       <c r="F14">
-        <v>11.04513602883186</v>
+        <v>18.25707718994092</v>
       </c>
       <c r="G14">
-        <v>10.45997863226104</v>
-      </c>
-      <c r="H14">
-        <v>4.924304279304915</v>
+        <v>22.02800801355489</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.940024700861247</v>
+      </c>
+      <c r="J14">
+        <v>8.659364741136313</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>6.714865210395097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.74186502997234</v>
+      </c>
+      <c r="M14">
+        <v>15.42425693227426</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.52414741966474</v>
+        <v>16.93446182958105</v>
       </c>
       <c r="C15">
-        <v>22.80570266173087</v>
+        <v>11.11014332748752</v>
       </c>
       <c r="D15">
-        <v>6.642586074429459</v>
+        <v>6.427472707083459</v>
       </c>
       <c r="F15">
-        <v>11.00969059789215</v>
+        <v>18.21289437275488</v>
       </c>
       <c r="G15">
-        <v>10.38067649171543</v>
-      </c>
-      <c r="H15">
-        <v>4.941237215534243</v>
+        <v>21.97624514865705</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.920993926008693</v>
+      </c>
+      <c r="J15">
+        <v>8.664760790495151</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>6.728099832832476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.75751901809546</v>
+      </c>
+      <c r="M15">
+        <v>15.34987169217957</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.54673564919334</v>
+        <v>16.41028596231382</v>
       </c>
       <c r="C16">
-        <v>22.13978214702711</v>
+        <v>10.78839579309481</v>
       </c>
       <c r="D16">
-        <v>6.454622568841757</v>
+        <v>6.307410046846998</v>
       </c>
       <c r="F16">
-        <v>10.81604114158633</v>
+        <v>18.05488616114074</v>
       </c>
       <c r="G16">
-        <v>9.939137789579545</v>
-      </c>
-      <c r="H16">
-        <v>5.041096858532377</v>
+        <v>21.84707882074551</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.803565459155478</v>
+      </c>
+      <c r="J16">
+        <v>8.724200165424909</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>6.81448486975404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.90251890062636</v>
+      </c>
+      <c r="M16">
+        <v>14.90760321243404</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.93202270566224</v>
+        <v>16.08042888153647</v>
       </c>
       <c r="C17">
-        <v>21.72177578786862</v>
+        <v>10.58763238806431</v>
       </c>
       <c r="D17">
-        <v>6.336600292059126</v>
+        <v>6.232760834233352</v>
       </c>
       <c r="F17">
-        <v>10.70568598469101</v>
+        <v>17.96274941091062</v>
       </c>
       <c r="G17">
-        <v>9.695932575688255</v>
-      </c>
-      <c r="H17">
-        <v>5.104753413506978</v>
+        <v>21.7767965200327</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.731238878452489</v>
+      </c>
+      <c r="J17">
+        <v>8.762237353023185</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>6.876378104107364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.99354072450647</v>
+      </c>
+      <c r="M17">
+        <v>14.63010752650831</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.57288746338109</v>
+        <v>15.89270643078604</v>
       </c>
       <c r="C18">
-        <v>21.47786974073988</v>
+        <v>10.450810154085</v>
       </c>
       <c r="D18">
-        <v>6.267721704992092</v>
+        <v>6.18217610810277</v>
       </c>
       <c r="F18">
-        <v>10.64530497133024</v>
+        <v>17.94827830604612</v>
       </c>
       <c r="G18">
-        <v>9.601048462717046</v>
-      </c>
-      <c r="H18">
-        <v>5.142201263663783</v>
+        <v>21.80359233710156</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.685326560936007</v>
+      </c>
+      <c r="J18">
+        <v>8.795334835896295</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>6.915048729008465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.06754909922269</v>
+      </c>
+      <c r="M18">
+        <v>14.4643733712432</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.45033235385256</v>
+        <v>15.82472660748124</v>
       </c>
       <c r="C19">
-        <v>21.39469042673068</v>
+        <v>10.41973805186989</v>
       </c>
       <c r="D19">
-        <v>6.244229853719545</v>
+        <v>6.170601921947218</v>
       </c>
       <c r="F19">
-        <v>10.62539057501618</v>
+        <v>17.91531756004472</v>
       </c>
       <c r="G19">
-        <v>9.570063230759567</v>
-      </c>
-      <c r="H19">
-        <v>5.155019627295234</v>
+        <v>21.76384321621398</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.672903268060059</v>
+      </c>
+      <c r="J19">
+        <v>8.798407531380358</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>6.928650881022152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.07657277575241</v>
+      </c>
+      <c r="M19">
+        <v>14.41083552515117</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.99803587537238</v>
+        <v>16.11625129463198</v>
       </c>
       <c r="C20">
-        <v>21.76663359611128</v>
+        <v>10.60757310434969</v>
       </c>
       <c r="D20">
-        <v>6.349267018324413</v>
+        <v>6.240175714775322</v>
       </c>
       <c r="F20">
-        <v>10.71711310400672</v>
+        <v>17.97525334220984</v>
       </c>
       <c r="G20">
-        <v>9.714033635470905</v>
-      </c>
-      <c r="H20">
-        <v>5.097889723314157</v>
+        <v>21.78895580385299</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.738617596758913</v>
+      </c>
+      <c r="J20">
+        <v>8.758967046407314</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>6.869467165000165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.9854186874637</v>
+      </c>
+      <c r="M20">
+        <v>14.65958307352672</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.77184263645153</v>
+        <v>17.06409496009833</v>
       </c>
       <c r="C21">
-        <v>22.97469410952548</v>
+        <v>11.20467163862245</v>
       </c>
       <c r="D21">
-        <v>6.690274915239238</v>
+        <v>6.462835986221662</v>
       </c>
       <c r="F21">
-        <v>11.06230065569526</v>
+        <v>18.23134135817707</v>
       </c>
       <c r="G21">
-        <v>10.49822713062639</v>
-      </c>
-      <c r="H21">
-        <v>4.916236263349851</v>
+        <v>21.97064997604079</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.953492878467332</v>
+      </c>
+      <c r="J21">
+        <v>8.642818264840479</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>6.70871255370581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>12.70668749876034</v>
+      </c>
+      <c r="M21">
+        <v>15.46455712545088</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.88194948730663</v>
+        <v>17.66328594169051</v>
       </c>
       <c r="C22">
-        <v>23.73314697813592</v>
+        <v>11.55715745168981</v>
       </c>
       <c r="D22">
-        <v>6.904253968763975</v>
+        <v>6.595031634835119</v>
       </c>
       <c r="F22">
-        <v>11.31554465890243</v>
+        <v>18.46570927991925</v>
       </c>
       <c r="G22">
-        <v>11.05195000607553</v>
-      </c>
-      <c r="H22">
-        <v>4.805985076917609</v>
+        <v>22.20910470341221</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.088118421169307</v>
+      </c>
+      <c r="J22">
+        <v>8.587511568795305</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>6.63526947014372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.56175056439414</v>
+      </c>
+      <c r="M22">
+        <v>15.96530503450992</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.29394326807872</v>
+        <v>17.3522773310526</v>
       </c>
       <c r="C23">
-        <v>23.33119272046239</v>
+        <v>11.3448758372393</v>
       </c>
       <c r="D23">
-        <v>6.790863306436131</v>
+        <v>6.51533411212086</v>
       </c>
       <c r="F23">
-        <v>11.17785765958311</v>
+        <v>18.38744458117435</v>
       </c>
       <c r="G23">
-        <v>10.75325357592179</v>
-      </c>
-      <c r="H23">
-        <v>4.86399781674835</v>
+        <v>22.1636943223663</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.01235205823067</v>
+      </c>
+      <c r="J23">
+        <v>8.630971863310711</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>6.671365237161073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.66714358274053</v>
+      </c>
+      <c r="M23">
+        <v>15.69503970293121</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.96820916896861</v>
+        <v>16.11065581296627</v>
       </c>
       <c r="C24">
-        <v>21.74636455733571</v>
+        <v>10.55652075375031</v>
       </c>
       <c r="D24">
-        <v>6.343543586783822</v>
+        <v>6.221498806490402</v>
       </c>
       <c r="F24">
-        <v>10.71193736318891</v>
+        <v>18.04721630160829</v>
       </c>
       <c r="G24">
-        <v>9.70582972053978</v>
-      </c>
-      <c r="H24">
-        <v>5.100990158326544</v>
+        <v>21.918737008651</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.727597997499192</v>
+      </c>
+      <c r="J24">
+        <v>8.783063683181675</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>6.872582031082701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.0336261833267</v>
+      </c>
+      <c r="M24">
+        <v>14.63819344403348</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.24645305844641</v>
+        <v>14.65585159530609</v>
       </c>
       <c r="C25">
-        <v>19.90403232966646</v>
+        <v>9.652791737644691</v>
       </c>
       <c r="D25">
-        <v>5.823036943338732</v>
+        <v>5.889582800663241</v>
       </c>
       <c r="F25">
-        <v>10.32703429765728</v>
+        <v>17.75125148407094</v>
       </c>
       <c r="G25">
-        <v>9.135320243959798</v>
-      </c>
-      <c r="H25">
-        <v>5.388120383074006</v>
+        <v>21.78294386155953</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.573528243037843</v>
+      </c>
+      <c r="J25">
+        <v>8.969104231213974</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>7.204805429321882</v>
+        <v>13.45793232715145</v>
+      </c>
+      <c r="M25">
+        <v>13.41041869623126</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,916 +421,1066 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.50323642324853</v>
+        <v>13.51405916126283</v>
       </c>
       <c r="C2">
-        <v>8.866628936232781</v>
+        <v>8.962152575889004</v>
       </c>
       <c r="D2">
-        <v>5.608153771100188</v>
+        <v>5.659587100476072</v>
       </c>
       <c r="F2">
-        <v>17.71423413528127</v>
+        <v>17.07167138369906</v>
       </c>
       <c r="G2">
-        <v>21.99392116288325</v>
+        <v>20.32704188590899</v>
       </c>
       <c r="I2">
-        <v>2.796812441404638</v>
+        <v>2.673805475780103</v>
       </c>
       <c r="J2">
-        <v>9.157753128024011</v>
+        <v>9.27945698300524</v>
       </c>
       <c r="K2">
-        <v>13.86083083279299</v>
+        <v>13.31060264282506</v>
+      </c>
+      <c r="L2">
+        <v>11.32143174454666</v>
       </c>
       <c r="M2">
-        <v>12.41695724538597</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>8.331721592067014</v>
+      </c>
+      <c r="O2">
+        <v>12.49261413865107</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.64902332726982</v>
+        <v>12.68852123556535</v>
       </c>
       <c r="C3">
-        <v>8.344782462289201</v>
+        <v>8.364040917894117</v>
       </c>
       <c r="D3">
-        <v>5.42454912863977</v>
+        <v>5.442456133434298</v>
       </c>
       <c r="F3">
-        <v>17.65114247593709</v>
+        <v>17.07421626055809</v>
       </c>
       <c r="G3">
-        <v>22.06840004253211</v>
+        <v>20.56489668871486</v>
       </c>
       <c r="I3">
-        <v>2.973163553610282</v>
+        <v>2.825654524620581</v>
       </c>
       <c r="J3">
-        <v>9.275070337731114</v>
+        <v>9.364527601560455</v>
       </c>
       <c r="K3">
-        <v>14.10727851449834</v>
+        <v>13.57062427327005</v>
+      </c>
+      <c r="L3">
+        <v>11.53918159943264</v>
       </c>
       <c r="M3">
-        <v>11.70471961297752</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>8.540435216691607</v>
+      </c>
+      <c r="O3">
+        <v>11.77586619943587</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.0930763820406</v>
+        <v>12.15164804262647</v>
       </c>
       <c r="C4">
-        <v>8.011505512183346</v>
+        <v>7.980685850764443</v>
       </c>
       <c r="D4">
-        <v>5.309072917692859</v>
+        <v>5.305647467905897</v>
       </c>
       <c r="F4">
-        <v>17.62535735433528</v>
+        <v>17.08618739747671</v>
       </c>
       <c r="G4">
-        <v>22.13456230626952</v>
+        <v>20.73125314890574</v>
       </c>
       <c r="I4">
-        <v>3.085934192502354</v>
+        <v>2.923147422830026</v>
       </c>
       <c r="J4">
-        <v>9.350956721701847</v>
+        <v>9.418360421127998</v>
       </c>
       <c r="K4">
-        <v>14.26349902267666</v>
+        <v>13.73363921054605</v>
+      </c>
+      <c r="L4">
+        <v>11.67718208767257</v>
       </c>
       <c r="M4">
-        <v>11.24494832121433</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.685951548422794</v>
+      </c>
+      <c r="O4">
+        <v>11.31323893241121</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.85635976722733</v>
+        <v>11.92327479243299</v>
       </c>
       <c r="C5">
-        <v>7.881200770039467</v>
+        <v>7.828875224384879</v>
       </c>
       <c r="D5">
-        <v>5.264058446536798</v>
+        <v>5.251651847319447</v>
       </c>
       <c r="F5">
-        <v>17.60480856026173</v>
+        <v>17.08148920680208</v>
       </c>
       <c r="G5">
-        <v>22.14402111337496</v>
+        <v>20.78323035293094</v>
       </c>
       <c r="I5">
-        <v>3.13591109013131</v>
+        <v>2.967337818610191</v>
       </c>
       <c r="J5">
-        <v>9.379178300932679</v>
+        <v>9.437365625905063</v>
       </c>
       <c r="K5">
-        <v>14.32126429210692</v>
+        <v>13.7946657625219</v>
+      </c>
+      <c r="L5">
+        <v>11.7281137565792</v>
       </c>
       <c r="M5">
-        <v>11.05363031023097</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.74660067844985</v>
+      </c>
+      <c r="O5">
+        <v>11.12062093265307</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.81381724338308</v>
+        <v>11.88236233585865</v>
       </c>
       <c r="C6">
-        <v>7.87004514639781</v>
+        <v>7.813750847305875</v>
       </c>
       <c r="D6">
-        <v>5.259851955821141</v>
+        <v>5.245797605245076</v>
       </c>
       <c r="F6">
-        <v>17.5854765075607</v>
+        <v>17.066115098254</v>
       </c>
       <c r="G6">
-        <v>22.11858523262499</v>
+        <v>20.76705771629933</v>
       </c>
       <c r="I6">
-        <v>3.147981042213548</v>
+        <v>2.979106422871916</v>
       </c>
       <c r="J6">
-        <v>9.379473048191519</v>
+        <v>9.4364839051101</v>
       </c>
       <c r="K6">
-        <v>14.32227053438209</v>
+        <v>13.79723989552626</v>
+      </c>
+      <c r="L6">
+        <v>11.72886629909035</v>
       </c>
       <c r="M6">
-        <v>11.0235219612101</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.75343464635176</v>
+      </c>
+      <c r="O6">
+        <v>11.09013911941619</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.08255609099946</v>
+        <v>12.14323455912556</v>
       </c>
       <c r="C7">
-        <v>8.038306555228083</v>
+        <v>7.997749265001499</v>
       </c>
       <c r="D7">
-        <v>5.317443394845229</v>
+        <v>5.318826844854601</v>
       </c>
       <c r="F7">
-        <v>17.58116546650489</v>
+        <v>17.02254820879845</v>
       </c>
       <c r="G7">
-        <v>22.06009318948099</v>
+        <v>20.70926352313223</v>
       </c>
       <c r="I7">
-        <v>3.096421650966847</v>
+        <v>2.935974607246495</v>
       </c>
       <c r="J7">
-        <v>9.339184552788032</v>
+        <v>9.375820801256555</v>
       </c>
       <c r="K7">
-        <v>14.24058399455411</v>
+        <v>13.70461555698687</v>
+      </c>
+      <c r="L7">
+        <v>11.64819076101646</v>
       </c>
       <c r="M7">
-        <v>11.2477426372786</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.672053594719827</v>
+      </c>
+      <c r="O7">
+        <v>11.31352609069744</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.20622314420651</v>
+        <v>13.23174000203746</v>
       </c>
       <c r="C8">
-        <v>8.724593886420818</v>
+        <v>8.767042480826802</v>
       </c>
       <c r="D8">
-        <v>5.557053832325141</v>
+        <v>5.613863713686613</v>
       </c>
       <c r="F8">
-        <v>17.63218986991244</v>
+        <v>16.94114712974741</v>
       </c>
       <c r="G8">
-        <v>21.9166676186962</v>
+        <v>20.46975613948117</v>
       </c>
       <c r="I8">
-        <v>2.869365100201148</v>
+        <v>2.742267214255333</v>
       </c>
       <c r="J8">
-        <v>9.181312825305385</v>
+        <v>9.191083673694511</v>
       </c>
       <c r="K8">
-        <v>13.91332317281568</v>
+        <v>13.34303754972653</v>
+      </c>
+      <c r="L8">
+        <v>11.34482135921699</v>
       </c>
       <c r="M8">
-        <v>12.1827282952308</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>8.365253986232005</v>
+      </c>
+      <c r="O8">
+        <v>12.24997921907735</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.17224448400502</v>
+        <v>15.13349939196142</v>
       </c>
       <c r="C9">
-        <v>9.921709812887718</v>
+        <v>10.13412165309046</v>
       </c>
       <c r="D9">
-        <v>5.988217161992205</v>
+        <v>6.127960444387179</v>
       </c>
       <c r="F9">
-        <v>17.91793973487088</v>
+        <v>17.02624289100126</v>
       </c>
       <c r="G9">
-        <v>21.94460423507241</v>
+        <v>20.13379987909827</v>
       </c>
       <c r="I9">
-        <v>2.513765922367067</v>
+        <v>2.588131563657065</v>
       </c>
       <c r="J9">
-        <v>8.925520387321264</v>
+        <v>8.972059212022673</v>
       </c>
       <c r="K9">
-        <v>13.35431683215799</v>
+        <v>12.72941980714863</v>
+      </c>
+      <c r="L9">
+        <v>10.84881152308657</v>
       </c>
       <c r="M9">
-        <v>13.82756764467296</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>7.947747428881394</v>
+      </c>
+      <c r="O9">
+        <v>13.90470729087892</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.46284647437357</v>
+        <v>16.38926432153094</v>
       </c>
       <c r="C10">
-        <v>10.75028837915142</v>
+        <v>11.03349763440549</v>
       </c>
       <c r="D10">
-        <v>6.293492766822793</v>
+        <v>6.517060439935304</v>
       </c>
       <c r="F10">
-        <v>18.17951420514678</v>
+        <v>17.00261267253116</v>
       </c>
       <c r="G10">
-        <v>22.05446476287497</v>
+        <v>20.2735258742132</v>
       </c>
       <c r="I10">
-        <v>2.802313768137122</v>
+        <v>2.835416426874045</v>
       </c>
       <c r="J10">
-        <v>8.753411070614487</v>
+        <v>8.643392876585263</v>
       </c>
       <c r="K10">
-        <v>12.95841995098398</v>
+        <v>12.23506004413578</v>
+      </c>
+      <c r="L10">
+        <v>10.46695960859043</v>
       </c>
       <c r="M10">
-        <v>14.92725904150142</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>7.685307311270654</v>
+      </c>
+      <c r="O10">
+        <v>15.00088907539516</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.00886077055877</v>
+        <v>16.93232361703046</v>
       </c>
       <c r="C11">
-        <v>11.14830617582245</v>
+        <v>11.39480767893779</v>
       </c>
       <c r="D11">
-        <v>6.441750524175497</v>
+        <v>6.750599576157494</v>
       </c>
       <c r="F11">
-        <v>18.24875041712583</v>
+        <v>16.72067403892379</v>
       </c>
       <c r="G11">
-        <v>22.01831831002237</v>
+        <v>20.77779674158715</v>
       </c>
       <c r="I11">
-        <v>2.936362765345037</v>
+        <v>2.948468925380906</v>
       </c>
       <c r="J11">
-        <v>8.660430338091384</v>
+        <v>8.223781669636319</v>
       </c>
       <c r="K11">
-        <v>12.74492829189827</v>
+        <v>11.89722384806813</v>
+      </c>
+      <c r="L11">
+        <v>10.2313890447725</v>
       </c>
       <c r="M11">
-        <v>15.41004375803501</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.473263464948336</v>
+      </c>
+      <c r="O11">
+        <v>15.46573986733004</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.21582155037768</v>
+        <v>17.13924518865317</v>
       </c>
       <c r="C12">
-        <v>11.27796619369448</v>
+        <v>11.50390115020124</v>
       </c>
       <c r="D12">
-        <v>6.490284626100578</v>
+        <v>6.837554445952425</v>
       </c>
       <c r="F12">
-        <v>18.31350743854558</v>
+        <v>16.62024904477838</v>
       </c>
       <c r="G12">
-        <v>22.07233634440825</v>
+        <v>21.10230001242418</v>
       </c>
       <c r="I12">
-        <v>2.984048093601202</v>
+        <v>2.986872296664948</v>
       </c>
       <c r="J12">
-        <v>8.636654046301279</v>
+        <v>8.059684086087792</v>
       </c>
       <c r="K12">
-        <v>12.68608268473879</v>
+        <v>11.7758661754771</v>
+      </c>
+      <c r="L12">
+        <v>10.14966192257576</v>
       </c>
       <c r="M12">
-        <v>15.58571261138398</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>7.399120604299653</v>
+      </c>
+      <c r="O12">
+        <v>15.63314180818396</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.17239601086094</v>
+        <v>17.09568534898323</v>
       </c>
       <c r="C13">
-        <v>11.24638460094866</v>
+        <v>11.47726613137355</v>
       </c>
       <c r="D13">
-        <v>6.478454332511438</v>
+        <v>6.817233669132536</v>
       </c>
       <c r="F13">
-        <v>18.30660690939466</v>
+        <v>16.64940069292648</v>
       </c>
       <c r="G13">
-        <v>22.07303611696653</v>
+        <v>21.04065853624708</v>
       </c>
       <c r="I13">
-        <v>2.973186406326615</v>
+        <v>2.977805777342445</v>
       </c>
       <c r="J13">
-        <v>8.643874767947549</v>
+        <v>8.096377649169604</v>
       </c>
       <c r="K13">
-        <v>12.7029533952818</v>
+        <v>11.80555242758809</v>
+      </c>
+      <c r="L13">
+        <v>10.16919990736978</v>
       </c>
       <c r="M13">
-        <v>15.54731185708163</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7.418576596593367</v>
+      </c>
+      <c r="O13">
+        <v>15.59664962994607</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.02638330983873</v>
+        <v>16.94978047278008</v>
       </c>
       <c r="C14">
-        <v>11.15740977276982</v>
+        <v>11.40244719340759</v>
       </c>
       <c r="D14">
-        <v>6.445156423030229</v>
+        <v>6.75706956938251</v>
       </c>
       <c r="F14">
-        <v>18.25707718994092</v>
+        <v>16.71564912676367</v>
       </c>
       <c r="G14">
-        <v>22.02800801355489</v>
+        <v>20.8079161576449</v>
       </c>
       <c r="I14">
-        <v>2.940024700861247</v>
+        <v>2.951280227655374</v>
       </c>
       <c r="J14">
-        <v>8.659364741136313</v>
+        <v>8.210944997731495</v>
       </c>
       <c r="K14">
-        <v>12.74186502997234</v>
+        <v>11.8887752366702</v>
+      </c>
+      <c r="L14">
+        <v>10.22551971709393</v>
       </c>
       <c r="M14">
-        <v>15.42425693227426</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>7.468651147989736</v>
+      </c>
+      <c r="O14">
+        <v>15.47932968386984</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.93446182958105</v>
+        <v>16.85827041024762</v>
       </c>
       <c r="C15">
-        <v>11.11014332748752</v>
+        <v>11.36251708868044</v>
       </c>
       <c r="D15">
-        <v>6.427472707083459</v>
+        <v>6.723591079089505</v>
       </c>
       <c r="F15">
-        <v>18.21289437275488</v>
+        <v>16.74020011413289</v>
       </c>
       <c r="G15">
-        <v>21.97624514865705</v>
+        <v>20.65234623123339</v>
       </c>
       <c r="I15">
-        <v>2.920993926008693</v>
+        <v>2.936716562040472</v>
       </c>
       <c r="J15">
-        <v>8.664760790495151</v>
+        <v>8.277452456734375</v>
       </c>
       <c r="K15">
-        <v>12.75751901809546</v>
+        <v>11.93220935899592</v>
+      </c>
+      <c r="L15">
+        <v>10.2558452640119</v>
       </c>
       <c r="M15">
-        <v>15.34987169217957</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>7.492109857846343</v>
+      </c>
+      <c r="O15">
+        <v>15.40812841759468</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.41028596231382</v>
+        <v>16.33840877357421</v>
       </c>
       <c r="C16">
-        <v>10.78839579309481</v>
+        <v>11.06998725711339</v>
       </c>
       <c r="D16">
-        <v>6.307410046846998</v>
+        <v>6.525190850912309</v>
       </c>
       <c r="F16">
-        <v>18.05488616114074</v>
+        <v>16.90971105879344</v>
       </c>
       <c r="G16">
-        <v>21.84707882074551</v>
+        <v>20.05656262724019</v>
       </c>
       <c r="I16">
-        <v>2.803565459155478</v>
+        <v>2.841388680127499</v>
       </c>
       <c r="J16">
-        <v>8.724200165424909</v>
+        <v>8.64133243015961</v>
       </c>
       <c r="K16">
-        <v>12.90251890062636</v>
+        <v>12.20106924756879</v>
+      </c>
+      <c r="L16">
+        <v>10.44645628995066</v>
       </c>
       <c r="M16">
-        <v>14.90760321243404</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>7.647829975903019</v>
+      </c>
+      <c r="O16">
+        <v>14.98125048880206</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.08042888153647</v>
+        <v>16.0137711105816</v>
       </c>
       <c r="C17">
-        <v>10.58763238806431</v>
+        <v>10.87341925133599</v>
       </c>
       <c r="D17">
-        <v>6.232760834233352</v>
+        <v>6.412542434268592</v>
       </c>
       <c r="F17">
-        <v>17.96274941091062</v>
+        <v>16.96938303299781</v>
       </c>
       <c r="G17">
-        <v>21.7767965200327</v>
+        <v>19.81685499461097</v>
       </c>
       <c r="I17">
-        <v>2.731238878452489</v>
+        <v>2.781882182589881</v>
       </c>
       <c r="J17">
-        <v>8.762237353023185</v>
+        <v>8.819742464447263</v>
       </c>
       <c r="K17">
-        <v>12.99354072450647</v>
+        <v>12.34875196299913</v>
+      </c>
+      <c r="L17">
+        <v>10.55584374457618</v>
       </c>
       <c r="M17">
-        <v>14.63010752650831</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>7.729719011798269</v>
+      </c>
+      <c r="O17">
+        <v>14.70998698704493</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.89270643078604</v>
+        <v>15.82957992757472</v>
       </c>
       <c r="C18">
-        <v>10.450810154085</v>
+        <v>10.73477748258625</v>
       </c>
       <c r="D18">
-        <v>6.18217610810277</v>
+        <v>6.344045177070972</v>
       </c>
       <c r="F18">
-        <v>17.94827830604612</v>
+        <v>17.02099487031471</v>
       </c>
       <c r="G18">
-        <v>21.80359233710156</v>
+        <v>19.78065142857028</v>
       </c>
       <c r="I18">
-        <v>2.685326560936007</v>
+        <v>2.741845958102582</v>
       </c>
       <c r="J18">
-        <v>8.795334835896295</v>
+        <v>8.910730069797054</v>
       </c>
       <c r="K18">
-        <v>13.06754909922269</v>
+        <v>12.44429985312073</v>
+      </c>
+      <c r="L18">
+        <v>10.62704265630314</v>
       </c>
       <c r="M18">
-        <v>14.4643733712432</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>7.787128771520682</v>
+      </c>
+      <c r="O18">
+        <v>14.5469197169384</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.82472660748124</v>
+        <v>15.76326885624866</v>
       </c>
       <c r="C19">
-        <v>10.41973805186989</v>
+        <v>10.70152591744736</v>
       </c>
       <c r="D19">
-        <v>6.170601921947218</v>
+        <v>6.326749519309698</v>
       </c>
       <c r="F19">
-        <v>17.91531756004472</v>
+        <v>17.01032721039932</v>
       </c>
       <c r="G19">
-        <v>21.76384321621398</v>
+        <v>19.73032584314696</v>
       </c>
       <c r="I19">
-        <v>2.672903268060059</v>
+        <v>2.732266401106693</v>
       </c>
       <c r="J19">
-        <v>8.798407531380358</v>
+        <v>8.93105784608483</v>
       </c>
       <c r="K19">
-        <v>13.07657277575241</v>
+        <v>12.46262326981617</v>
+      </c>
+      <c r="L19">
+        <v>10.64168551477675</v>
       </c>
       <c r="M19">
-        <v>14.41083552515117</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>7.79451215664272</v>
+      </c>
+      <c r="O19">
+        <v>14.49385884236292</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.11625129463198</v>
+        <v>16.04890929225147</v>
       </c>
       <c r="C20">
-        <v>10.60757310434969</v>
+        <v>10.89351126775247</v>
       </c>
       <c r="D20">
-        <v>6.240175714775322</v>
+        <v>6.423654009042896</v>
       </c>
       <c r="F20">
-        <v>17.97525334220984</v>
+        <v>16.96725759551403</v>
       </c>
       <c r="G20">
-        <v>21.78895580385299</v>
+        <v>19.84243549961318</v>
       </c>
       <c r="I20">
-        <v>2.738617596758913</v>
+        <v>2.787830917856686</v>
       </c>
       <c r="J20">
-        <v>8.758967046407314</v>
+        <v>8.803471958605622</v>
       </c>
       <c r="K20">
-        <v>12.9854186874637</v>
+        <v>12.33498701682452</v>
+      </c>
+      <c r="L20">
+        <v>10.54540381613327</v>
       </c>
       <c r="M20">
-        <v>14.65958307352672</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>7.722635616833151</v>
+      </c>
+      <c r="O20">
+        <v>14.73894504472488</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.06409496009833</v>
+        <v>16.99189442898905</v>
       </c>
       <c r="C21">
-        <v>11.20467163862245</v>
+        <v>11.42173659471883</v>
       </c>
       <c r="D21">
-        <v>6.462835986221662</v>
+        <v>6.7997480335448</v>
       </c>
       <c r="F21">
-        <v>18.23134135817707</v>
+        <v>16.58074679793452</v>
       </c>
       <c r="G21">
-        <v>21.97064997604079</v>
+        <v>20.99194800248242</v>
       </c>
       <c r="I21">
-        <v>2.953492878467332</v>
+        <v>2.962503886809513</v>
       </c>
       <c r="J21">
-        <v>8.642818264840479</v>
+        <v>8.091695676249147</v>
       </c>
       <c r="K21">
-        <v>12.70668749876034</v>
+        <v>11.81725791462374</v>
+      </c>
+      <c r="L21">
+        <v>10.18085534531694</v>
       </c>
       <c r="M21">
-        <v>15.46455712545088</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>7.407986440878382</v>
+      </c>
+      <c r="O21">
+        <v>15.51217028046242</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.66328594169051</v>
+        <v>17.58927488039393</v>
       </c>
       <c r="C22">
-        <v>11.55715745168981</v>
+        <v>11.72481817081811</v>
       </c>
       <c r="D22">
-        <v>6.595031634835119</v>
+        <v>7.037598769225066</v>
       </c>
       <c r="F22">
-        <v>18.46570927991925</v>
+        <v>16.35610408731418</v>
       </c>
       <c r="G22">
-        <v>22.20910470341221</v>
+        <v>21.96820752480487</v>
       </c>
       <c r="I22">
-        <v>3.088118421169307</v>
+        <v>3.069942162025303</v>
       </c>
       <c r="J22">
-        <v>8.587511568795305</v>
+        <v>7.709985815963891</v>
       </c>
       <c r="K22">
-        <v>12.56175056439414</v>
+        <v>11.49390909171603</v>
+      </c>
+      <c r="L22">
+        <v>9.968052347917979</v>
       </c>
       <c r="M22">
-        <v>15.96530503450992</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>7.220670602855672</v>
+      </c>
+      <c r="O22">
+        <v>15.99158324431439</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.3522773310526</v>
+        <v>17.2757545805379</v>
       </c>
       <c r="C23">
-        <v>11.3448758372393</v>
+        <v>11.55631855611826</v>
       </c>
       <c r="D23">
-        <v>6.51533411212086</v>
+        <v>6.889250935535632</v>
       </c>
       <c r="F23">
-        <v>18.38744458117435</v>
+        <v>16.57590504961574</v>
       </c>
       <c r="G23">
-        <v>22.1636943223663</v>
+        <v>21.3853175127995</v>
       </c>
       <c r="I23">
-        <v>3.01235205823067</v>
+        <v>3.008187551952083</v>
       </c>
       <c r="J23">
-        <v>8.630971863310711</v>
+        <v>7.958448467447313</v>
       </c>
       <c r="K23">
-        <v>12.66714358274053</v>
+        <v>11.70835986079534</v>
+      </c>
+      <c r="L23">
+        <v>10.10406327378265</v>
       </c>
       <c r="M23">
-        <v>15.69503970293121</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>7.362140958700955</v>
+      </c>
+      <c r="O23">
+        <v>15.73689025087043</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.11065581296627</v>
+        <v>16.04276827841582</v>
       </c>
       <c r="C24">
-        <v>10.55652075375031</v>
+        <v>10.84427445278085</v>
       </c>
       <c r="D24">
-        <v>6.221498806490402</v>
+        <v>6.403998620668773</v>
       </c>
       <c r="F24">
-        <v>18.04721630160829</v>
+        <v>17.03793865885764</v>
       </c>
       <c r="G24">
-        <v>21.918737008651</v>
+        <v>19.95483805390299</v>
       </c>
       <c r="I24">
-        <v>2.727597997499192</v>
+        <v>2.775106022760782</v>
       </c>
       <c r="J24">
-        <v>8.783063683181675</v>
+        <v>8.829002613182618</v>
       </c>
       <c r="K24">
-        <v>13.0336261833267</v>
+        <v>12.37672398321316</v>
+      </c>
+      <c r="L24">
+        <v>10.57396017597944</v>
       </c>
       <c r="M24">
-        <v>14.63819344403348</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>7.757424203331414</v>
+      </c>
+      <c r="O24">
+        <v>14.71838551343028</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.65585159530609</v>
+        <v>14.63259756850043</v>
       </c>
       <c r="C25">
-        <v>9.652791737644691</v>
+        <v>9.830408437504332</v>
       </c>
       <c r="D25">
-        <v>5.889582800663241</v>
+        <v>5.999897242809709</v>
       </c>
       <c r="F25">
-        <v>17.75125148407094</v>
+        <v>16.95584451312262</v>
       </c>
       <c r="G25">
-        <v>21.78294386155953</v>
+        <v>20.01284537094424</v>
       </c>
       <c r="I25">
-        <v>2.573528243037843</v>
+        <v>2.50421808244556</v>
       </c>
       <c r="J25">
-        <v>8.969104231213974</v>
+        <v>9.054988636851917</v>
       </c>
       <c r="K25">
-        <v>13.45793232715145</v>
+        <v>12.86973606396549</v>
+      </c>
+      <c r="L25">
+        <v>10.96169263269981</v>
       </c>
       <c r="M25">
-        <v>13.41041869623126</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+        <v>8.026427846448419</v>
+      </c>
+      <c r="O25">
+        <v>13.48694776393563</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
